--- a/public/spreadsheets/roman-ampitheatres-processed.xlsx
+++ b/public/spreadsheets/roman-ampitheatres-processed.xlsx
@@ -7647,7 +7647,7 @@
   <dimension ref="A1:D154"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I156" activeCellId="0" sqref="I156"/>
+      <selection pane="topLeft" activeCell="N108" activeCellId="0" sqref="N108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/public/spreadsheets/roman-ampitheatres-processed.xlsx
+++ b/public/spreadsheets/roman-ampitheatres-processed.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="top20Capacity" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="Scatter" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="Time" sheetId="3" state="visible" r:id="rId5"/>
     <sheet name="mapData" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="boxPlot" sheetId="5" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">Scatter!$A$1:$G$146</definedName>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="327">
   <si>
     <t xml:space="preserve">capacity</t>
   </si>
@@ -1050,6 +1051,7 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1197,17 +1199,17 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1216,11 +1218,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1244,15 +1246,15 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="22" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="23" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="22" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="23" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="22" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="23" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1264,47 +1266,35 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="24" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="24" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="24" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="24" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="24" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="24" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="20" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1317,9 +1307,9 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
     <cellStyle name="Pivot Table Category" xfId="20"/>
-    <cellStyle name="Pivot Table Field" xfId="21"/>
-    <cellStyle name="Pivot Table Title" xfId="22"/>
-    <cellStyle name="Pivot Table Corner" xfId="23"/>
+    <cellStyle name="Pivot Table Corner" xfId="21"/>
+    <cellStyle name="Pivot Table Field" xfId="22"/>
+    <cellStyle name="Pivot Table Title" xfId="23"/>
     <cellStyle name="Pivot Table Value" xfId="24"/>
   </cellStyles>
   <dxfs count="1">
@@ -6509,1124 +6499,1124 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="39.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="8.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="39.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="25.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="B2" s="17" t="n">
+      <c r="B2" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="18" t="n">
+      <c r="C2" s="16" t="n">
         <v>8806.625</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="B3" s="19" t="n">
+      <c r="B3" s="17" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="20" t="n">
+      <c r="C3" s="18" t="n">
         <v>8722</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="B4" s="19" t="n">
+      <c r="B4" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="C4" s="20" t="n">
+      <c r="C4" s="18" t="n">
         <v>12275.95</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="B5" s="19" t="n">
+      <c r="B5" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="C5" s="20" t="n">
+      <c r="C5" s="18" t="n">
         <v>9240.1375375</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="B6" s="19" t="n">
+      <c r="B6" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="C6" s="20" t="n">
+      <c r="C6" s="18" t="n">
         <v>9000</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="B7" s="19" t="n">
+      <c r="B7" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="C7" s="20" t="n">
+      <c r="C7" s="18" t="n">
         <v>11398.1080952381</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="B8" s="19" t="n">
+      <c r="B8" s="17" t="n">
         <v>6</v>
       </c>
-      <c r="C8" s="20" t="n">
+      <c r="C8" s="18" t="n">
         <v>8277.44411764706</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="B9" s="19" t="n">
+      <c r="B9" s="17" t="n">
         <v>7</v>
       </c>
-      <c r="C9" s="20" t="n">
+      <c r="C9" s="18" t="n">
         <v>6137.5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="B10" s="19" t="n">
+      <c r="B10" s="17" t="n">
         <v>8</v>
       </c>
-      <c r="C10" s="20" t="n">
+      <c r="C10" s="18" t="n">
         <v>14065</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="B11" s="19" t="n">
+      <c r="B11" s="17" t="n">
         <v>9</v>
       </c>
-      <c r="C11" s="20" t="n">
+      <c r="C11" s="18" t="n">
         <v>8457.7</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="B12" s="19" t="n">
+      <c r="B12" s="17" t="n">
         <v>10</v>
       </c>
-      <c r="C12" s="20" t="n">
+      <c r="C12" s="18" t="n">
         <v>11327.55552</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="B13" s="19" t="n">
+      <c r="B13" s="17" t="n">
         <v>11</v>
       </c>
-      <c r="C13" s="20" t="n">
+      <c r="C13" s="18" t="n">
         <v>7262.79913043478</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="B14" s="19" t="n">
+      <c r="B14" s="17" t="n">
         <v>12</v>
       </c>
-      <c r="C14" s="20" t="n">
+      <c r="C14" s="18" t="n">
         <v>5997.66666666667</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="B15" s="19" t="n">
+      <c r="B15" s="17" t="n">
         <v>13</v>
       </c>
-      <c r="C15" s="20" t="n">
+      <c r="C15" s="18" t="n">
         <v>6244.88</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="B16" s="19" t="n">
+      <c r="B16" s="17" t="n">
         <v>14</v>
       </c>
-      <c r="C16" s="20" t="n">
+      <c r="C16" s="18" t="n">
         <v>7900</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="B17" s="19" t="n">
+      <c r="B17" s="17" t="n">
         <v>15</v>
       </c>
-      <c r="C17" s="20" t="n">
+      <c r="C17" s="18" t="n">
         <v>18056</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="B18" s="19" t="n">
+      <c r="B18" s="17" t="n">
         <v>16</v>
       </c>
-      <c r="C18" s="20" t="n">
+      <c r="C18" s="18" t="n">
         <v>2000</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="B19" s="19" t="n">
+      <c r="B19" s="17" t="n">
         <v>17</v>
       </c>
-      <c r="C19" s="21" t="n">
+      <c r="C19" s="19" t="n">
         <v>7147.25474285714</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="22"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="20"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="22"/>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="22"/>
-      <c r="B22" s="23"/>
-      <c r="C22" s="23"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="22"/>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="22"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="22"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="22"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="22"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="22"/>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="22"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="22"/>
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="22"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="23"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="22"/>
-      <c r="B32" s="23"/>
-      <c r="C32" s="23"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="22"/>
-      <c r="B33" s="23"/>
-      <c r="C33" s="23"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="22"/>
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="22"/>
-      <c r="B35" s="23"/>
-      <c r="C35" s="23"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="22"/>
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="22"/>
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="22"/>
-      <c r="B38" s="23"/>
-      <c r="C38" s="23"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="22"/>
-      <c r="B39" s="23"/>
-      <c r="C39" s="23"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="22"/>
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="22"/>
-      <c r="B41" s="23"/>
-      <c r="C41" s="23"/>
+      <c r="A41" s="12"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="22"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="23"/>
+      <c r="A42" s="12"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="22"/>
-      <c r="B43" s="23"/>
-      <c r="C43" s="23"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="22"/>
-      <c r="B44" s="23"/>
-      <c r="C44" s="23"/>
+      <c r="A44" s="12"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="22"/>
-      <c r="B45" s="23"/>
-      <c r="C45" s="23"/>
+      <c r="A45" s="12"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="22"/>
-      <c r="B46" s="23"/>
-      <c r="C46" s="23"/>
+      <c r="A46" s="12"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="22"/>
-      <c r="B47" s="23"/>
-      <c r="C47" s="23"/>
+      <c r="A47" s="12"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="22"/>
-      <c r="B48" s="23"/>
-      <c r="C48" s="23"/>
+      <c r="A48" s="12"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="22"/>
-      <c r="B49" s="23"/>
-      <c r="C49" s="23"/>
+      <c r="A49" s="12"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="22"/>
-      <c r="B50" s="23"/>
-      <c r="C50" s="23"/>
+      <c r="A50" s="12"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="22"/>
-      <c r="B51" s="23"/>
-      <c r="C51" s="23"/>
+      <c r="A51" s="12"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="22"/>
-      <c r="B52" s="23"/>
-      <c r="C52" s="23"/>
+      <c r="A52" s="12"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="22"/>
-      <c r="B53" s="23"/>
-      <c r="C53" s="23"/>
+      <c r="A53" s="12"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="22"/>
-      <c r="B54" s="23"/>
-      <c r="C54" s="23"/>
+      <c r="A54" s="12"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="22"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="23"/>
+      <c r="A55" s="12"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="20"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="22"/>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
+      <c r="A56" s="12"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="20"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="22"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="23"/>
+      <c r="A57" s="12"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="22"/>
-      <c r="B58" s="23"/>
-      <c r="C58" s="23"/>
+      <c r="A58" s="12"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="20"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="22"/>
-      <c r="B59" s="23"/>
-      <c r="C59" s="23"/>
+      <c r="A59" s="12"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="22"/>
-      <c r="B60" s="23"/>
-      <c r="C60" s="23"/>
+      <c r="A60" s="12"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="20"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="22"/>
-      <c r="B61" s="23"/>
-      <c r="C61" s="23"/>
+      <c r="A61" s="12"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="20"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="22"/>
-      <c r="B62" s="23"/>
-      <c r="C62" s="23"/>
+      <c r="A62" s="12"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="20"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="22"/>
-      <c r="B63" s="23"/>
-      <c r="C63" s="23"/>
+      <c r="A63" s="12"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="20"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="22"/>
-      <c r="B64" s="23"/>
-      <c r="C64" s="23"/>
+      <c r="A64" s="12"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="20"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="22"/>
-      <c r="B65" s="23"/>
-      <c r="C65" s="23"/>
+      <c r="A65" s="12"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="20"/>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="22"/>
-      <c r="B66" s="23"/>
-      <c r="C66" s="23"/>
+      <c r="A66" s="12"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="20"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="22"/>
-      <c r="B67" s="23"/>
-      <c r="C67" s="23"/>
+      <c r="A67" s="12"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="20"/>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="22"/>
-      <c r="B68" s="23"/>
-      <c r="C68" s="23"/>
+      <c r="A68" s="12"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="20"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="22"/>
-      <c r="B69" s="23"/>
-      <c r="C69" s="23"/>
+      <c r="A69" s="12"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="20"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="22"/>
-      <c r="B70" s="23"/>
-      <c r="C70" s="23"/>
+      <c r="A70" s="12"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="20"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="22"/>
-      <c r="B71" s="23"/>
-      <c r="C71" s="23"/>
+      <c r="A71" s="12"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="20"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="22"/>
-      <c r="B72" s="23"/>
-      <c r="C72" s="23"/>
+      <c r="A72" s="12"/>
+      <c r="B72" s="20"/>
+      <c r="C72" s="20"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="22"/>
-      <c r="B73" s="23"/>
-      <c r="C73" s="23"/>
+      <c r="A73" s="12"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="20"/>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="22"/>
-      <c r="B74" s="23"/>
-      <c r="C74" s="23"/>
+      <c r="A74" s="12"/>
+      <c r="B74" s="20"/>
+      <c r="C74" s="20"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="22"/>
-      <c r="B75" s="23"/>
-      <c r="C75" s="23"/>
+      <c r="A75" s="12"/>
+      <c r="B75" s="20"/>
+      <c r="C75" s="20"/>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="22"/>
-      <c r="B76" s="23"/>
-      <c r="C76" s="23"/>
+      <c r="A76" s="12"/>
+      <c r="B76" s="20"/>
+      <c r="C76" s="20"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="22"/>
-      <c r="B77" s="23"/>
-      <c r="C77" s="23"/>
+      <c r="A77" s="12"/>
+      <c r="B77" s="20"/>
+      <c r="C77" s="20"/>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="22"/>
-      <c r="B78" s="23"/>
-      <c r="C78" s="23"/>
+      <c r="A78" s="12"/>
+      <c r="B78" s="20"/>
+      <c r="C78" s="20"/>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="22"/>
-      <c r="B79" s="23"/>
-      <c r="C79" s="23"/>
+      <c r="A79" s="12"/>
+      <c r="B79" s="20"/>
+      <c r="C79" s="20"/>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="22"/>
-      <c r="B80" s="23"/>
-      <c r="C80" s="23"/>
+      <c r="A80" s="12"/>
+      <c r="B80" s="20"/>
+      <c r="C80" s="20"/>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="22"/>
-      <c r="B81" s="23"/>
-      <c r="C81" s="23"/>
+      <c r="A81" s="12"/>
+      <c r="B81" s="20"/>
+      <c r="C81" s="20"/>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="22"/>
-      <c r="B82" s="23"/>
-      <c r="C82" s="23"/>
+      <c r="A82" s="12"/>
+      <c r="B82" s="20"/>
+      <c r="C82" s="20"/>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="22"/>
-      <c r="B83" s="23"/>
-      <c r="C83" s="23"/>
+      <c r="A83" s="12"/>
+      <c r="B83" s="20"/>
+      <c r="C83" s="20"/>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="22"/>
-      <c r="B84" s="23"/>
-      <c r="C84" s="23"/>
+      <c r="A84" s="12"/>
+      <c r="B84" s="20"/>
+      <c r="C84" s="20"/>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="22"/>
-      <c r="B85" s="23"/>
-      <c r="C85" s="23"/>
+      <c r="A85" s="12"/>
+      <c r="B85" s="20"/>
+      <c r="C85" s="20"/>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="22"/>
-      <c r="B86" s="23"/>
-      <c r="C86" s="23"/>
+      <c r="A86" s="12"/>
+      <c r="B86" s="20"/>
+      <c r="C86" s="20"/>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="22"/>
-      <c r="B87" s="23"/>
-      <c r="C87" s="23"/>
+      <c r="A87" s="12"/>
+      <c r="B87" s="20"/>
+      <c r="C87" s="20"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="22"/>
-      <c r="B88" s="23"/>
-      <c r="C88" s="23"/>
+      <c r="A88" s="12"/>
+      <c r="B88" s="20"/>
+      <c r="C88" s="20"/>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="22"/>
-      <c r="B89" s="23"/>
-      <c r="C89" s="23"/>
+      <c r="A89" s="12"/>
+      <c r="B89" s="20"/>
+      <c r="C89" s="20"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="22"/>
-      <c r="B90" s="23"/>
-      <c r="C90" s="23"/>
+      <c r="A90" s="12"/>
+      <c r="B90" s="20"/>
+      <c r="C90" s="20"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="22"/>
-      <c r="B91" s="23"/>
-      <c r="C91" s="23"/>
+      <c r="A91" s="12"/>
+      <c r="B91" s="20"/>
+      <c r="C91" s="20"/>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="22"/>
-      <c r="B92" s="23"/>
-      <c r="C92" s="23"/>
+      <c r="A92" s="12"/>
+      <c r="B92" s="20"/>
+      <c r="C92" s="20"/>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="22"/>
-      <c r="B93" s="23"/>
-      <c r="C93" s="23"/>
+      <c r="A93" s="12"/>
+      <c r="B93" s="20"/>
+      <c r="C93" s="20"/>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="22"/>
-      <c r="B94" s="23"/>
-      <c r="C94" s="23"/>
+      <c r="A94" s="12"/>
+      <c r="B94" s="20"/>
+      <c r="C94" s="20"/>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="22"/>
-      <c r="B95" s="23"/>
-      <c r="C95" s="23"/>
+      <c r="A95" s="12"/>
+      <c r="B95" s="20"/>
+      <c r="C95" s="20"/>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="22"/>
-      <c r="B96" s="23"/>
-      <c r="C96" s="23"/>
+      <c r="A96" s="12"/>
+      <c r="B96" s="20"/>
+      <c r="C96" s="20"/>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="22"/>
-      <c r="B97" s="23"/>
-      <c r="C97" s="23"/>
+      <c r="A97" s="12"/>
+      <c r="B97" s="20"/>
+      <c r="C97" s="20"/>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="22"/>
-      <c r="B98" s="23"/>
-      <c r="C98" s="23"/>
+      <c r="A98" s="12"/>
+      <c r="B98" s="20"/>
+      <c r="C98" s="20"/>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="22"/>
-      <c r="B99" s="23"/>
-      <c r="C99" s="23"/>
+      <c r="A99" s="12"/>
+      <c r="B99" s="20"/>
+      <c r="C99" s="20"/>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="22"/>
-      <c r="B100" s="23"/>
-      <c r="C100" s="23"/>
+      <c r="A100" s="12"/>
+      <c r="B100" s="20"/>
+      <c r="C100" s="20"/>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="22"/>
-      <c r="B101" s="23"/>
-      <c r="C101" s="23"/>
+      <c r="A101" s="12"/>
+      <c r="B101" s="20"/>
+      <c r="C101" s="20"/>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="22"/>
-      <c r="B102" s="23"/>
-      <c r="C102" s="23"/>
+      <c r="A102" s="12"/>
+      <c r="B102" s="20"/>
+      <c r="C102" s="20"/>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="22"/>
-      <c r="B103" s="23"/>
-      <c r="C103" s="23"/>
+      <c r="A103" s="12"/>
+      <c r="B103" s="20"/>
+      <c r="C103" s="20"/>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="22"/>
-      <c r="B104" s="23"/>
-      <c r="C104" s="23"/>
+      <c r="A104" s="12"/>
+      <c r="B104" s="20"/>
+      <c r="C104" s="20"/>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="22"/>
-      <c r="B105" s="23"/>
-      <c r="C105" s="23"/>
+      <c r="A105" s="12"/>
+      <c r="B105" s="20"/>
+      <c r="C105" s="20"/>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="22"/>
-      <c r="B106" s="23"/>
-      <c r="C106" s="23"/>
+      <c r="A106" s="12"/>
+      <c r="B106" s="20"/>
+      <c r="C106" s="20"/>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="22"/>
-      <c r="B107" s="23"/>
-      <c r="C107" s="23"/>
+      <c r="A107" s="12"/>
+      <c r="B107" s="20"/>
+      <c r="C107" s="20"/>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="22"/>
-      <c r="B108" s="23"/>
-      <c r="C108" s="23"/>
+      <c r="A108" s="12"/>
+      <c r="B108" s="20"/>
+      <c r="C108" s="20"/>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="22"/>
-      <c r="B109" s="23"/>
-      <c r="C109" s="23"/>
+      <c r="A109" s="12"/>
+      <c r="B109" s="20"/>
+      <c r="C109" s="20"/>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="22"/>
-      <c r="B110" s="23"/>
-      <c r="C110" s="23"/>
+      <c r="A110" s="12"/>
+      <c r="B110" s="20"/>
+      <c r="C110" s="20"/>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="22"/>
-      <c r="B111" s="23"/>
-      <c r="C111" s="23"/>
+      <c r="A111" s="12"/>
+      <c r="B111" s="20"/>
+      <c r="C111" s="20"/>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="22"/>
-      <c r="B112" s="23"/>
-      <c r="C112" s="23"/>
+      <c r="A112" s="12"/>
+      <c r="B112" s="20"/>
+      <c r="C112" s="20"/>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="22"/>
-      <c r="B113" s="23"/>
-      <c r="C113" s="23"/>
+      <c r="A113" s="12"/>
+      <c r="B113" s="20"/>
+      <c r="C113" s="20"/>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="22"/>
-      <c r="B114" s="23"/>
-      <c r="C114" s="23"/>
+      <c r="A114" s="12"/>
+      <c r="B114" s="20"/>
+      <c r="C114" s="20"/>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="22"/>
-      <c r="B115" s="23"/>
-      <c r="C115" s="23"/>
+      <c r="A115" s="12"/>
+      <c r="B115" s="20"/>
+      <c r="C115" s="20"/>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="22"/>
-      <c r="B116" s="23"/>
-      <c r="C116" s="23"/>
+      <c r="A116" s="12"/>
+      <c r="B116" s="20"/>
+      <c r="C116" s="20"/>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="22"/>
-      <c r="B117" s="23"/>
-      <c r="C117" s="23"/>
+      <c r="A117" s="12"/>
+      <c r="B117" s="20"/>
+      <c r="C117" s="20"/>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="22"/>
-      <c r="B118" s="23"/>
-      <c r="C118" s="23"/>
+      <c r="A118" s="12"/>
+      <c r="B118" s="20"/>
+      <c r="C118" s="20"/>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="22"/>
-      <c r="B119" s="23"/>
-      <c r="C119" s="23"/>
+      <c r="A119" s="12"/>
+      <c r="B119" s="20"/>
+      <c r="C119" s="20"/>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="22"/>
-      <c r="B120" s="23"/>
-      <c r="C120" s="23"/>
+      <c r="A120" s="12"/>
+      <c r="B120" s="20"/>
+      <c r="C120" s="20"/>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="22"/>
-      <c r="B121" s="23"/>
-      <c r="C121" s="23"/>
+      <c r="A121" s="12"/>
+      <c r="B121" s="20"/>
+      <c r="C121" s="20"/>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="22"/>
-      <c r="B122" s="23"/>
-      <c r="C122" s="23"/>
+      <c r="A122" s="12"/>
+      <c r="B122" s="20"/>
+      <c r="C122" s="20"/>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="22"/>
-      <c r="B123" s="23"/>
-      <c r="C123" s="23"/>
+      <c r="A123" s="12"/>
+      <c r="B123" s="20"/>
+      <c r="C123" s="20"/>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="22"/>
-      <c r="B124" s="23"/>
-      <c r="C124" s="23"/>
+      <c r="A124" s="12"/>
+      <c r="B124" s="20"/>
+      <c r="C124" s="20"/>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="22"/>
-      <c r="B125" s="23"/>
-      <c r="C125" s="23"/>
+      <c r="A125" s="12"/>
+      <c r="B125" s="20"/>
+      <c r="C125" s="20"/>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="22"/>
-      <c r="B126" s="23"/>
-      <c r="C126" s="23"/>
+      <c r="A126" s="12"/>
+      <c r="B126" s="20"/>
+      <c r="C126" s="20"/>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="22"/>
-      <c r="B127" s="23"/>
-      <c r="C127" s="23"/>
+      <c r="A127" s="12"/>
+      <c r="B127" s="20"/>
+      <c r="C127" s="20"/>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="22"/>
-      <c r="B128" s="23"/>
-      <c r="C128" s="23"/>
+      <c r="A128" s="12"/>
+      <c r="B128" s="20"/>
+      <c r="C128" s="20"/>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="22"/>
-      <c r="B129" s="23"/>
-      <c r="C129" s="23"/>
+      <c r="A129" s="12"/>
+      <c r="B129" s="20"/>
+      <c r="C129" s="20"/>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="22"/>
-      <c r="B130" s="23"/>
-      <c r="C130" s="23"/>
+      <c r="A130" s="12"/>
+      <c r="B130" s="20"/>
+      <c r="C130" s="20"/>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="22"/>
-      <c r="B131" s="23"/>
-      <c r="C131" s="23"/>
+      <c r="A131" s="12"/>
+      <c r="B131" s="20"/>
+      <c r="C131" s="20"/>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="22"/>
-      <c r="B132" s="23"/>
-      <c r="C132" s="23"/>
+      <c r="A132" s="12"/>
+      <c r="B132" s="20"/>
+      <c r="C132" s="20"/>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="22"/>
-      <c r="B133" s="23"/>
-      <c r="C133" s="23"/>
+      <c r="A133" s="12"/>
+      <c r="B133" s="20"/>
+      <c r="C133" s="20"/>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="22"/>
-      <c r="B134" s="23"/>
-      <c r="C134" s="23"/>
+      <c r="A134" s="12"/>
+      <c r="B134" s="20"/>
+      <c r="C134" s="20"/>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="22"/>
-      <c r="B135" s="23"/>
-      <c r="C135" s="23"/>
+      <c r="A135" s="12"/>
+      <c r="B135" s="20"/>
+      <c r="C135" s="20"/>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="22"/>
-      <c r="B136" s="23"/>
-      <c r="C136" s="23"/>
+      <c r="A136" s="12"/>
+      <c r="B136" s="20"/>
+      <c r="C136" s="20"/>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="22"/>
-      <c r="B137" s="23"/>
-      <c r="C137" s="23"/>
+      <c r="A137" s="12"/>
+      <c r="B137" s="20"/>
+      <c r="C137" s="20"/>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="22"/>
-      <c r="B138" s="23"/>
-      <c r="C138" s="23"/>
+      <c r="A138" s="12"/>
+      <c r="B138" s="20"/>
+      <c r="C138" s="20"/>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="22"/>
-      <c r="B139" s="23"/>
-      <c r="C139" s="23"/>
+      <c r="A139" s="12"/>
+      <c r="B139" s="20"/>
+      <c r="C139" s="20"/>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="22"/>
-      <c r="B140" s="23"/>
-      <c r="C140" s="23"/>
+      <c r="A140" s="12"/>
+      <c r="B140" s="20"/>
+      <c r="C140" s="20"/>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="22"/>
-      <c r="B141" s="23"/>
-      <c r="C141" s="23"/>
+      <c r="A141" s="12"/>
+      <c r="B141" s="20"/>
+      <c r="C141" s="20"/>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="22"/>
-      <c r="B142" s="23"/>
-      <c r="C142" s="23"/>
+      <c r="A142" s="12"/>
+      <c r="B142" s="20"/>
+      <c r="C142" s="20"/>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="22"/>
-      <c r="B143" s="23"/>
-      <c r="C143" s="23"/>
+      <c r="A143" s="12"/>
+      <c r="B143" s="20"/>
+      <c r="C143" s="20"/>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="22"/>
-      <c r="B144" s="23"/>
-      <c r="C144" s="23"/>
+      <c r="A144" s="12"/>
+      <c r="B144" s="20"/>
+      <c r="C144" s="20"/>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="22"/>
-      <c r="B145" s="23"/>
-      <c r="C145" s="23"/>
+      <c r="A145" s="12"/>
+      <c r="B145" s="20"/>
+      <c r="C145" s="20"/>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="22"/>
-      <c r="B146" s="23"/>
-      <c r="C146" s="23"/>
+      <c r="A146" s="12"/>
+      <c r="B146" s="20"/>
+      <c r="C146" s="20"/>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="22"/>
-      <c r="B147" s="23"/>
-      <c r="C147" s="23"/>
+      <c r="A147" s="12"/>
+      <c r="B147" s="20"/>
+      <c r="C147" s="20"/>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="22"/>
-      <c r="B148" s="23"/>
-      <c r="C148" s="23"/>
+      <c r="A148" s="12"/>
+      <c r="B148" s="20"/>
+      <c r="C148" s="20"/>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="22"/>
-      <c r="B149" s="23"/>
-      <c r="C149" s="23"/>
+      <c r="A149" s="12"/>
+      <c r="B149" s="20"/>
+      <c r="C149" s="20"/>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="22"/>
-      <c r="B150" s="23"/>
-      <c r="C150" s="23"/>
+      <c r="A150" s="12"/>
+      <c r="B150" s="20"/>
+      <c r="C150" s="20"/>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="22"/>
-      <c r="B151" s="23"/>
-      <c r="C151" s="23"/>
+      <c r="A151" s="12"/>
+      <c r="B151" s="20"/>
+      <c r="C151" s="20"/>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="22"/>
-      <c r="B152" s="23"/>
-      <c r="C152" s="23"/>
+      <c r="A152" s="12"/>
+      <c r="B152" s="20"/>
+      <c r="C152" s="20"/>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="22"/>
-      <c r="B153" s="23"/>
-      <c r="C153" s="23"/>
+      <c r="A153" s="12"/>
+      <c r="B153" s="20"/>
+      <c r="C153" s="20"/>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="22"/>
-      <c r="B154" s="23"/>
-      <c r="C154" s="23"/>
+      <c r="A154" s="12"/>
+      <c r="B154" s="20"/>
+      <c r="C154" s="20"/>
     </row>
     <row r="155" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="22"/>
-      <c r="B155" s="23"/>
-      <c r="C155" s="23"/>
+      <c r="A155" s="12"/>
+      <c r="B155" s="20"/>
+      <c r="C155" s="20"/>
     </row>
     <row r="156" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="22"/>
-      <c r="B156" s="23"/>
-      <c r="C156" s="23"/>
+      <c r="A156" s="12"/>
+      <c r="B156" s="20"/>
+      <c r="C156" s="20"/>
     </row>
     <row r="157" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="22"/>
-      <c r="B157" s="23"/>
-      <c r="C157" s="23"/>
+      <c r="A157" s="12"/>
+      <c r="B157" s="20"/>
+      <c r="C157" s="20"/>
     </row>
     <row r="158" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="22"/>
-      <c r="B158" s="23"/>
-      <c r="C158" s="23"/>
+      <c r="A158" s="12"/>
+      <c r="B158" s="20"/>
+      <c r="C158" s="20"/>
     </row>
     <row r="159" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="22"/>
-      <c r="B159" s="23"/>
-      <c r="C159" s="23"/>
+      <c r="A159" s="12"/>
+      <c r="B159" s="20"/>
+      <c r="C159" s="20"/>
     </row>
     <row r="160" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="22"/>
-      <c r="B160" s="23"/>
-      <c r="C160" s="23"/>
+      <c r="A160" s="12"/>
+      <c r="B160" s="20"/>
+      <c r="C160" s="20"/>
     </row>
     <row r="161" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="22"/>
-      <c r="B161" s="23"/>
-      <c r="C161" s="23"/>
+      <c r="A161" s="12"/>
+      <c r="B161" s="20"/>
+      <c r="C161" s="20"/>
     </row>
     <row r="162" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="22"/>
-      <c r="B162" s="23"/>
-      <c r="C162" s="23"/>
+      <c r="A162" s="12"/>
+      <c r="B162" s="20"/>
+      <c r="C162" s="20"/>
     </row>
     <row r="163" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="22"/>
-      <c r="B163" s="23"/>
-      <c r="C163" s="23"/>
+      <c r="A163" s="12"/>
+      <c r="B163" s="20"/>
+      <c r="C163" s="20"/>
     </row>
     <row r="164" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="22"/>
-      <c r="B164" s="23"/>
-      <c r="C164" s="23"/>
+      <c r="A164" s="12"/>
+      <c r="B164" s="20"/>
+      <c r="C164" s="20"/>
     </row>
     <row r="165" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="22"/>
-      <c r="B165" s="23"/>
-      <c r="C165" s="23"/>
+      <c r="A165" s="12"/>
+      <c r="B165" s="20"/>
+      <c r="C165" s="20"/>
     </row>
     <row r="166" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="22"/>
-      <c r="B166" s="23"/>
-      <c r="C166" s="23"/>
+      <c r="A166" s="12"/>
+      <c r="B166" s="20"/>
+      <c r="C166" s="20"/>
     </row>
     <row r="167" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="22"/>
-      <c r="B167" s="23"/>
-      <c r="C167" s="23"/>
+      <c r="A167" s="12"/>
+      <c r="B167" s="20"/>
+      <c r="C167" s="20"/>
     </row>
     <row r="168" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="22"/>
-      <c r="B168" s="23"/>
-      <c r="C168" s="23"/>
+      <c r="A168" s="12"/>
+      <c r="B168" s="20"/>
+      <c r="C168" s="20"/>
     </row>
     <row r="169" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="22"/>
-      <c r="B169" s="23"/>
-      <c r="C169" s="23"/>
+      <c r="A169" s="12"/>
+      <c r="B169" s="20"/>
+      <c r="C169" s="20"/>
     </row>
     <row r="170" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="22"/>
-      <c r="B170" s="23"/>
-      <c r="C170" s="23"/>
+      <c r="A170" s="12"/>
+      <c r="B170" s="20"/>
+      <c r="C170" s="20"/>
     </row>
     <row r="171" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="22"/>
-      <c r="B171" s="23"/>
-      <c r="C171" s="23"/>
+      <c r="A171" s="12"/>
+      <c r="B171" s="20"/>
+      <c r="C171" s="20"/>
     </row>
     <row r="172" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="22"/>
-      <c r="B172" s="23"/>
-      <c r="C172" s="23"/>
+      <c r="A172" s="12"/>
+      <c r="B172" s="20"/>
+      <c r="C172" s="20"/>
     </row>
     <row r="173" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="22"/>
-      <c r="B173" s="23"/>
-      <c r="C173" s="23"/>
+      <c r="A173" s="12"/>
+      <c r="B173" s="20"/>
+      <c r="C173" s="20"/>
     </row>
     <row r="174" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="22"/>
-      <c r="B174" s="23"/>
-      <c r="C174" s="23"/>
+      <c r="A174" s="12"/>
+      <c r="B174" s="20"/>
+      <c r="C174" s="20"/>
     </row>
     <row r="175" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="22"/>
-      <c r="B175" s="23"/>
-      <c r="C175" s="23"/>
+      <c r="A175" s="12"/>
+      <c r="B175" s="20"/>
+      <c r="C175" s="20"/>
     </row>
     <row r="176" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="22"/>
-      <c r="B176" s="23"/>
-      <c r="C176" s="23"/>
+      <c r="A176" s="12"/>
+      <c r="B176" s="20"/>
+      <c r="C176" s="20"/>
     </row>
     <row r="177" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="22"/>
-      <c r="B177" s="23"/>
-      <c r="C177" s="23"/>
+      <c r="A177" s="12"/>
+      <c r="B177" s="20"/>
+      <c r="C177" s="20"/>
     </row>
     <row r="178" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="22"/>
-      <c r="B178" s="23"/>
-      <c r="C178" s="23"/>
+      <c r="A178" s="12"/>
+      <c r="B178" s="20"/>
+      <c r="C178" s="20"/>
     </row>
     <row r="179" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="22"/>
-      <c r="B179" s="23"/>
-      <c r="C179" s="23"/>
+      <c r="A179" s="12"/>
+      <c r="B179" s="20"/>
+      <c r="C179" s="20"/>
     </row>
     <row r="180" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="22"/>
-      <c r="B180" s="23"/>
-      <c r="C180" s="23"/>
+      <c r="A180" s="12"/>
+      <c r="B180" s="20"/>
+      <c r="C180" s="20"/>
     </row>
     <row r="181" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="22"/>
-      <c r="B181" s="23"/>
-      <c r="C181" s="23"/>
+      <c r="A181" s="12"/>
+      <c r="B181" s="20"/>
+      <c r="C181" s="20"/>
     </row>
     <row r="182" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="22"/>
-      <c r="B182" s="23"/>
-      <c r="C182" s="23"/>
+      <c r="A182" s="12"/>
+      <c r="B182" s="20"/>
+      <c r="C182" s="20"/>
     </row>
     <row r="183" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="22"/>
-      <c r="B183" s="23"/>
-      <c r="C183" s="23"/>
+      <c r="A183" s="12"/>
+      <c r="B183" s="20"/>
+      <c r="C183" s="20"/>
     </row>
     <row r="184" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="22"/>
-      <c r="B184" s="23"/>
-      <c r="C184" s="23"/>
+      <c r="A184" s="12"/>
+      <c r="B184" s="20"/>
+      <c r="C184" s="20"/>
     </row>
     <row r="185" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="22"/>
-      <c r="B185" s="23"/>
-      <c r="C185" s="23"/>
+      <c r="A185" s="12"/>
+      <c r="B185" s="20"/>
+      <c r="C185" s="20"/>
     </row>
     <row r="186" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="22"/>
-      <c r="B186" s="23"/>
-      <c r="C186" s="23"/>
+      <c r="A186" s="12"/>
+      <c r="B186" s="20"/>
+      <c r="C186" s="20"/>
     </row>
     <row r="187" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="22"/>
-      <c r="B187" s="23"/>
-      <c r="C187" s="23"/>
+      <c r="A187" s="12"/>
+      <c r="B187" s="20"/>
+      <c r="C187" s="20"/>
     </row>
     <row r="188" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="22"/>
-      <c r="B188" s="23"/>
-      <c r="C188" s="23"/>
+      <c r="A188" s="12"/>
+      <c r="B188" s="20"/>
+      <c r="C188" s="20"/>
     </row>
     <row r="189" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="22"/>
-      <c r="B189" s="23"/>
-      <c r="C189" s="23"/>
+      <c r="A189" s="12"/>
+      <c r="B189" s="20"/>
+      <c r="C189" s="20"/>
     </row>
     <row r="190" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="22"/>
-      <c r="B190" s="23"/>
-      <c r="C190" s="23"/>
+      <c r="A190" s="12"/>
+      <c r="B190" s="20"/>
+      <c r="C190" s="20"/>
     </row>
     <row r="191" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="22"/>
-      <c r="B191" s="23"/>
-      <c r="C191" s="23"/>
+      <c r="A191" s="12"/>
+      <c r="B191" s="20"/>
+      <c r="C191" s="20"/>
     </row>
     <row r="192" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="22"/>
-      <c r="B192" s="23"/>
-      <c r="C192" s="23"/>
+      <c r="A192" s="12"/>
+      <c r="B192" s="20"/>
+      <c r="C192" s="20"/>
     </row>
     <row r="193" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="22"/>
-      <c r="B193" s="23"/>
-      <c r="C193" s="23"/>
+      <c r="A193" s="12"/>
+      <c r="B193" s="20"/>
+      <c r="C193" s="20"/>
     </row>
     <row r="194" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="22"/>
-      <c r="B194" s="23"/>
-      <c r="C194" s="23"/>
+      <c r="A194" s="12"/>
+      <c r="B194" s="20"/>
+      <c r="C194" s="20"/>
     </row>
     <row r="195" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="22"/>
-      <c r="B195" s="23"/>
-      <c r="C195" s="23"/>
+      <c r="A195" s="12"/>
+      <c r="B195" s="20"/>
+      <c r="C195" s="20"/>
     </row>
     <row r="196" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="22"/>
-      <c r="B196" s="23"/>
-      <c r="C196" s="23"/>
+      <c r="A196" s="12"/>
+      <c r="B196" s="20"/>
+      <c r="C196" s="20"/>
     </row>
     <row r="197" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="22"/>
-      <c r="B197" s="23"/>
-      <c r="C197" s="23"/>
+      <c r="A197" s="12"/>
+      <c r="B197" s="20"/>
+      <c r="C197" s="20"/>
     </row>
     <row r="198" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="22"/>
-      <c r="B198" s="23"/>
-      <c r="C198" s="23"/>
+      <c r="A198" s="12"/>
+      <c r="B198" s="20"/>
+      <c r="C198" s="20"/>
     </row>
     <row r="199" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="22"/>
-      <c r="B199" s="23"/>
-      <c r="C199" s="23"/>
+      <c r="A199" s="12"/>
+      <c r="B199" s="20"/>
+      <c r="C199" s="20"/>
     </row>
     <row r="200" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="22"/>
-      <c r="B200" s="23"/>
-      <c r="C200" s="23"/>
+      <c r="A200" s="12"/>
+      <c r="B200" s="20"/>
+      <c r="C200" s="20"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -7646,2166 +7636,3884 @@
   </sheetPr>
   <dimension ref="A1:D154"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A85" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="N108" activeCellId="0" sqref="N108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="B2" s="23" t="n">
+      <c r="B2" s="20" t="n">
         <v>3000</v>
       </c>
-      <c r="C2" s="23" t="n">
+      <c r="C2" s="20" t="n">
         <v>9.230632</v>
       </c>
-      <c r="D2" s="23" t="n">
+      <c r="D2" s="20" t="n">
         <v>36.391031</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="B3" s="23" t="n">
+      <c r="B3" s="20" t="n">
         <v>3000</v>
       </c>
-      <c r="C3" s="23" t="n">
+      <c r="C3" s="20" t="n">
         <v>9.361924</v>
       </c>
-      <c r="D3" s="23" t="n">
+      <c r="D3" s="20" t="n">
         <v>36.52782</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="B4" s="23" t="n">
+      <c r="B4" s="20" t="n">
         <v>10720</v>
       </c>
-      <c r="C4" s="23" t="n">
+      <c r="C4" s="20" t="n">
         <v>13.412289</v>
       </c>
-      <c r="D4" s="23" t="n">
+      <c r="D4" s="20" t="n">
         <v>42.0772</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="B5" s="23" t="n">
+      <c r="B5" s="20" t="n">
         <v>3926</v>
       </c>
-      <c r="C5" s="23" t="n">
+      <c r="C5" s="20" t="n">
         <v>8.211019</v>
       </c>
-      <c r="D5" s="23" t="n">
+      <c r="D5" s="20" t="n">
         <v>44.043709</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="B6" s="23" t="n">
+      <c r="B6" s="20" t="n">
         <v>1248</v>
       </c>
-      <c r="C6" s="23" t="n">
+      <c r="C6" s="20" t="n">
         <v>9.5102</v>
       </c>
-      <c r="D6" s="23" t="n">
+      <c r="D6" s="20" t="n">
         <v>42.100889</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="B7" s="23" t="n">
+      <c r="B7" s="20" t="n">
         <v>17848</v>
       </c>
-      <c r="C7" s="23" t="n">
+      <c r="C7" s="20" t="n">
         <v>2.293485</v>
       </c>
-      <c r="D7" s="23" t="n">
+      <c r="D7" s="20" t="n">
         <v>49.8944</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="B8" s="23" t="n">
+      <c r="B8" s="20" t="n">
         <v>14168</v>
       </c>
-      <c r="C8" s="23" t="n">
+      <c r="C8" s="20" t="n">
         <v>13.511791</v>
       </c>
-      <c r="D8" s="23" t="n">
+      <c r="D8" s="20" t="n">
         <v>43.624604</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="B9" s="23" t="n">
+      <c r="B9" s="20" t="n">
         <v>9770</v>
       </c>
-      <c r="C9" s="23" t="n">
+      <c r="C9" s="20" t="n">
         <v>7.323481</v>
       </c>
-      <c r="D9" s="23" t="n">
+      <c r="D9" s="20" t="n">
         <v>45.740914</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="22" t="s">
+      <c r="A10" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="B10" s="23" t="n">
+      <c r="B10" s="20" t="n">
         <v>3926</v>
       </c>
-      <c r="C10" s="23" t="n">
+      <c r="C10" s="20" t="n">
         <v>2.658224</v>
       </c>
-      <c r="D10" s="23" t="n">
+      <c r="D10" s="20" t="n">
         <v>46.289891</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="B11" s="23" t="n">
+      <c r="B11" s="20" t="n">
         <v>26114</v>
       </c>
-      <c r="C11" s="23" t="n">
+      <c r="C11" s="20" t="n">
         <v>13.370713</v>
       </c>
-      <c r="D11" s="23" t="n">
+      <c r="D11" s="20" t="n">
         <v>45.768239</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="B12" s="23" t="n">
+      <c r="B12" s="20" t="n">
         <v>8617</v>
       </c>
-      <c r="C12" s="23" t="n">
+      <c r="C12" s="20" t="n">
         <v>19.047985</v>
       </c>
-      <c r="D12" s="23" t="n">
+      <c r="D12" s="20" t="n">
         <v>47.567577</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="B13" s="23" t="n">
+      <c r="B13" s="20" t="n">
         <v>16049</v>
       </c>
-      <c r="C13" s="23" t="n">
+      <c r="C13" s="20" t="n">
         <v>19.03906599</v>
       </c>
-      <c r="D13" s="23" t="n">
+      <c r="D13" s="20" t="n">
         <v>47.532947</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="22" t="s">
+      <c r="A14" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="B14" s="23" t="n">
+      <c r="B14" s="20" t="n">
         <v>17789</v>
       </c>
-      <c r="C14" s="23" t="n">
+      <c r="C14" s="20" t="n">
         <v>13.691338</v>
       </c>
-      <c r="D14" s="23" t="n">
+      <c r="D14" s="20" t="n">
         <v>41.49469</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="B15" s="23" t="n">
+      <c r="B15" s="20" t="n">
         <v>8000</v>
       </c>
-      <c r="C15" s="23" t="n">
+      <c r="C15" s="20" t="n">
         <v>11.88037</v>
       </c>
-      <c r="D15" s="23" t="n">
+      <c r="D15" s="20" t="n">
         <v>43.460491</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="B16" s="23" t="n">
+      <c r="B16" s="20" t="n">
         <v>23354</v>
       </c>
-      <c r="C16" s="23" t="n">
+      <c r="C16" s="20" t="n">
         <v>4.631111</v>
       </c>
-      <c r="D16" s="23" t="n">
+      <c r="D16" s="20" t="n">
         <v>43.677778</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="B17" s="23" t="n">
+      <c r="B17" s="20" t="n">
         <v>6000</v>
       </c>
-      <c r="C17" s="23" t="n">
+      <c r="C17" s="20" t="n">
         <v>-4.573101</v>
       </c>
-      <c r="D17" s="23" t="n">
+      <c r="D17" s="20" t="n">
         <v>37.755197</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="22" t="s">
+      <c r="A18" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="B18" s="23" t="n">
+      <c r="B18" s="20" t="n">
         <v>14313</v>
       </c>
-      <c r="C18" s="23" t="n">
+      <c r="C18" s="20" t="n">
         <v>7.72061</v>
       </c>
-      <c r="D18" s="23" t="n">
+      <c r="D18" s="20" t="n">
         <v>47.529294</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="B19" s="23" t="n">
+      <c r="B19" s="20" t="n">
         <v>32189</v>
       </c>
-      <c r="C19" s="23" t="n">
+      <c r="C19" s="20" t="n">
         <v>4.310856</v>
       </c>
-      <c r="D19" s="23" t="n">
+      <c r="D19" s="20" t="n">
         <v>46.953003</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="22" t="s">
+      <c r="A20" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="B20" s="23" t="n">
+      <c r="B20" s="20" t="n">
         <v>13006</v>
       </c>
-      <c r="C20" s="23" t="n">
+      <c r="C20" s="20" t="n">
         <v>7.042646</v>
       </c>
-      <c r="D20" s="23" t="n">
+      <c r="D20" s="20" t="n">
         <v>46.880971</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="B21" s="23" t="n">
+      <c r="B21" s="20" t="n">
         <v>12100</v>
       </c>
-      <c r="C21" s="23" t="n">
+      <c r="C21" s="20" t="n">
         <v>10.791226</v>
       </c>
-      <c r="D21" s="23" t="n">
+      <c r="D21" s="20" t="n">
         <v>35.211828</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="B22" s="23" t="n">
+      <c r="B22" s="20" t="n">
         <v>4400</v>
       </c>
-      <c r="C22" s="23" t="n">
+      <c r="C22" s="20" t="n">
         <v>11.042371</v>
       </c>
-      <c r="D22" s="23" t="n">
+      <c r="D22" s="20" t="n">
         <v>35.619149</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="B23" s="23" t="n">
+      <c r="B23" s="20" t="n">
         <v>23016</v>
       </c>
-      <c r="C23" s="23" t="n">
+      <c r="C23" s="20" t="n">
         <v>27.174177</v>
       </c>
-      <c r="D23" s="23" t="n">
+      <c r="D23" s="20" t="n">
         <v>39.125751</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="B24" s="23" t="n">
+      <c r="B24" s="20" t="n">
         <v>1946</v>
       </c>
-      <c r="C24" s="23" t="n">
+      <c r="C24" s="20" t="n">
         <v>7.451179</v>
       </c>
-      <c r="D24" s="23" t="n">
+      <c r="D24" s="20" t="n">
         <v>46.975715</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="B25" s="23" t="n">
+      <c r="B25" s="20" t="n">
         <v>13816</v>
       </c>
-      <c r="C25" s="23" t="n">
+      <c r="C25" s="20" t="n">
         <v>6.015942</v>
       </c>
-      <c r="D25" s="23" t="n">
+      <c r="D25" s="20" t="n">
         <v>47.239027</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="B26" s="23" t="n">
+      <c r="B26" s="20" t="n">
         <v>6251</v>
       </c>
-      <c r="C26" s="23" t="n">
+      <c r="C26" s="20" t="n">
         <v>12.615587</v>
       </c>
-      <c r="D26" s="23" t="n">
+      <c r="D26" s="20" t="n">
         <v>42.936903</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="B27" s="23" t="n">
+      <c r="B27" s="20" t="n">
         <v>8601</v>
       </c>
-      <c r="C27" s="23" t="n">
+      <c r="C27" s="20" t="n">
         <v>3.214026</v>
       </c>
-      <c r="D27" s="23" t="n">
+      <c r="D27" s="20" t="n">
         <v>43.339589</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="B28" s="23" t="n">
+      <c r="B28" s="20" t="n">
         <v>11000</v>
       </c>
-      <c r="C28" s="23" t="n">
+      <c r="C28" s="20" t="n">
         <v>11.990158</v>
       </c>
-      <c r="D28" s="23" t="n">
+      <c r="D28" s="20" t="n">
         <v>42.650243</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="B29" s="23" t="n">
+      <c r="B29" s="20" t="n">
         <v>22130</v>
       </c>
-      <c r="C29" s="23" t="n">
+      <c r="C29" s="20" t="n">
         <v>-0.582476</v>
       </c>
-      <c r="D29" s="23" t="n">
+      <c r="D29" s="20" t="n">
         <v>44.847382</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="22" t="s">
+      <c r="A30" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="B30" s="23" t="n">
+      <c r="B30" s="20" t="n">
         <v>11600</v>
       </c>
-      <c r="C30" s="23" t="n">
+      <c r="C30" s="20" t="n">
         <v>11.018944</v>
       </c>
-      <c r="D30" s="23" t="n">
+      <c r="D30" s="20" t="n">
         <v>35.075962</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="22" t="s">
+      <c r="A31" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="B31" s="23" t="n">
+      <c r="B31" s="20" t="n">
         <v>9700</v>
       </c>
-      <c r="C31" s="23" t="n">
+      <c r="C31" s="20" t="n">
         <v>8.762598</v>
       </c>
-      <c r="D31" s="23" t="n">
+      <c r="D31" s="20" t="n">
         <v>36.564169</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="B32" s="23" t="n">
+      <c r="B32" s="20" t="n">
         <v>6000</v>
       </c>
-      <c r="C32" s="23" t="n">
+      <c r="C32" s="20" t="n">
         <v>-2.956878</v>
       </c>
-      <c r="D32" s="23" t="n">
+      <c r="D32" s="20" t="n">
         <v>51.6080589</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="22" t="s">
+      <c r="A33" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="B33" s="23" t="n">
+      <c r="B33" s="20" t="n">
         <v>3532</v>
       </c>
-      <c r="C33" s="23" t="n">
+      <c r="C33" s="20" t="n">
         <v>-2.766307</v>
       </c>
-      <c r="D33" s="23" t="n">
+      <c r="D33" s="20" t="n">
         <v>51.612173</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="22" t="s">
+      <c r="A34" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="B34" s="23" t="n">
+      <c r="B34" s="20" t="n">
         <v>12283</v>
       </c>
-      <c r="C34" s="23" t="n">
+      <c r="C34" s="20" t="n">
         <v>9.113228</v>
       </c>
-      <c r="D34" s="23" t="n">
+      <c r="D34" s="20" t="n">
         <v>39.223908</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="22" t="s">
+      <c r="A35" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="B35" s="23" t="n">
+      <c r="B35" s="20" t="n">
         <v>37000</v>
       </c>
-      <c r="C35" s="23" t="n">
+      <c r="C35" s="20" t="n">
         <v>14.250089</v>
       </c>
-      <c r="D35" s="23" t="n">
+      <c r="D35" s="20" t="n">
         <v>41.085935</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="B36" s="23" t="n">
+      <c r="B36" s="20" t="n">
         <v>18350</v>
       </c>
-      <c r="C36" s="23" t="n">
+      <c r="C36" s="20" t="n">
         <v>-5.650907</v>
       </c>
-      <c r="D36" s="23" t="n">
+      <c r="D36" s="20" t="n">
         <v>37.469674</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="22" t="s">
+      <c r="A37" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="B37" s="23" t="n">
+      <c r="B37" s="20" t="n">
         <v>13000</v>
       </c>
-      <c r="C37" s="23" t="n">
+      <c r="C37" s="20" t="n">
         <v>16.850943</v>
       </c>
-      <c r="D37" s="23" t="n">
+      <c r="D37" s="20" t="n">
         <v>48.110019</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="22" t="s">
+      <c r="A38" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="B38" s="23" t="n">
+      <c r="B38" s="20" t="n">
         <v>8000</v>
       </c>
-      <c r="C38" s="23" t="n">
+      <c r="C38" s="20" t="n">
         <v>16.892619</v>
       </c>
-      <c r="D38" s="23" t="n">
+      <c r="D38" s="20" t="n">
         <v>48.126824</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="22" t="s">
+      <c r="A39" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="B39" s="23" t="n">
+      <c r="B39" s="20" t="n">
         <v>5945</v>
       </c>
-      <c r="C39" s="23" t="n">
+      <c r="C39" s="20" t="n">
         <v>12.559172</v>
       </c>
-      <c r="D39" s="23" t="n">
+      <c r="D39" s="20" t="n">
         <v>42.639468</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="B40" s="23" t="n">
+      <c r="B40" s="20" t="n">
         <v>30000</v>
       </c>
-      <c r="C40" s="23" t="n">
+      <c r="C40" s="20" t="n">
         <v>10.314924</v>
       </c>
-      <c r="D40" s="23" t="n">
+      <c r="D40" s="20" t="n">
         <v>36.856078</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="22" t="s">
+      <c r="A41" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="B41" s="23" t="n">
+      <c r="B41" s="20" t="n">
         <v>7840</v>
       </c>
-      <c r="C41" s="23" t="n">
+      <c r="C41" s="20" t="n">
         <v>13.823575</v>
       </c>
-      <c r="D41" s="23" t="n">
+      <c r="D41" s="20" t="n">
         <v>41.482933</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="22" t="s">
+      <c r="A42" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="B42" s="23" t="n">
+      <c r="B42" s="20" t="n">
         <v>15538</v>
       </c>
-      <c r="C42" s="23" t="n">
+      <c r="C42" s="20" t="n">
         <v>12.66501</v>
       </c>
-      <c r="D42" s="23" t="n">
+      <c r="D42" s="20" t="n">
         <v>41.732637</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="22" t="s">
+      <c r="A43" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="B43" s="23" t="n">
+      <c r="B43" s="20" t="n">
         <v>16000</v>
       </c>
-      <c r="C43" s="23" t="n">
+      <c r="C43" s="20" t="n">
         <v>15.085323</v>
       </c>
-      <c r="D43" s="23" t="n">
+      <c r="D43" s="20" t="n">
         <v>37.507096</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="B44" s="23" t="n">
+      <c r="B44" s="20" t="n">
         <v>6500</v>
       </c>
-      <c r="C44" s="23" t="n">
+      <c r="C44" s="20" t="n">
         <v>8.580552</v>
       </c>
-      <c r="D44" s="23" t="n">
+      <c r="D44" s="20" t="n">
         <v>36.490426</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="22" t="s">
+      <c r="A45" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="B45" s="23" t="n">
+      <c r="B45" s="20" t="n">
         <v>10861</v>
       </c>
-      <c r="C45" s="23" t="n">
+      <c r="C45" s="20" t="n">
         <v>-2.886928</v>
       </c>
-      <c r="D45" s="23" t="n">
+      <c r="D45" s="20" t="n">
         <v>53.189079</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="22" t="s">
+      <c r="A46" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="B46" s="23" t="n">
+      <c r="B46" s="20" t="n">
         <v>4245</v>
       </c>
-      <c r="C46" s="23" t="n">
+      <c r="C46" s="20" t="n">
         <v>7.2752435</v>
       </c>
-      <c r="D46" s="23" t="n">
+      <c r="D46" s="20" t="n">
         <v>43.71967279</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="22" t="s">
+      <c r="A47" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="B47" s="23" t="n">
+      <c r="B47" s="20" t="n">
         <v>10210</v>
       </c>
-      <c r="C47" s="23" t="n">
+      <c r="C47" s="20" t="n">
         <v>-1.972188</v>
       </c>
-      <c r="D47" s="23" t="n">
+      <c r="D47" s="20" t="n">
         <v>51.71151</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="B48" s="23" t="n">
+      <c r="B48" s="20" t="n">
         <v>4000</v>
       </c>
-      <c r="C48" s="23" t="n">
+      <c r="C48" s="20" t="n">
         <v>-8.49333</v>
       </c>
-      <c r="D48" s="23" t="n">
+      <c r="D48" s="20" t="n">
         <v>40.099444</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="22" t="s">
+      <c r="A49" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="B49" s="23" t="n">
+      <c r="B49" s="20" t="n">
         <v>14000</v>
       </c>
-      <c r="C49" s="23" t="n">
+      <c r="C49" s="20" t="n">
         <v>22.892126</v>
       </c>
-      <c r="D49" s="23" t="n">
+      <c r="D49" s="20" t="n">
         <v>37.909629</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="22" t="s">
+      <c r="A50" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="B50" s="23" t="n">
+      <c r="B50" s="20" t="n">
         <v>7952</v>
       </c>
-      <c r="C50" s="23" t="n">
+      <c r="C50" s="20" t="n">
         <v>-2.440246</v>
       </c>
-      <c r="D50" s="23" t="n">
+      <c r="D50" s="20" t="n">
         <v>50.708044</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="22" t="s">
+      <c r="A51" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="B51" s="23" t="n">
+      <c r="B51" s="20" t="n">
         <v>1000</v>
       </c>
-      <c r="C51" s="23" t="n">
+      <c r="C51" s="20" t="n">
         <v>40.728926</v>
       </c>
-      <c r="D51" s="23" t="n">
+      <c r="D51" s="20" t="n">
         <v>34.749855</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="22" t="s">
+      <c r="A52" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="B52" s="23" t="n">
+      <c r="B52" s="20" t="n">
         <v>20000</v>
       </c>
-      <c r="C52" s="23" t="n">
+      <c r="C52" s="20" t="n">
         <v>19.445131</v>
       </c>
-      <c r="D52" s="23" t="n">
+      <c r="D52" s="20" t="n">
         <v>41.312241</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="22" t="s">
+      <c r="A53" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="B53" s="23" t="n">
+      <c r="B53" s="20" t="n">
         <v>3500</v>
       </c>
-      <c r="C53" s="23" t="n">
+      <c r="C53" s="20" t="n">
         <v>34.893845</v>
       </c>
-      <c r="D53" s="23" t="n">
+      <c r="D53" s="20" t="n">
         <v>31.608189</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="22" t="s">
+      <c r="A54" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="B54" s="23" t="n">
+      <c r="B54" s="20" t="n">
         <v>3343</v>
       </c>
-      <c r="C54" s="23" t="n">
+      <c r="C54" s="20" t="n">
         <v>3.117431</v>
       </c>
-      <c r="D54" s="23" t="n">
+      <c r="D54" s="20" t="n">
         <v>42.130042</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="22" t="s">
+      <c r="A55" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="B55" s="23" t="n">
+      <c r="B55" s="20" t="n">
         <v>7986</v>
       </c>
-      <c r="C55" s="23" t="n">
+      <c r="C55" s="20" t="n">
         <v>12.361043</v>
       </c>
-      <c r="D55" s="23" t="n">
+      <c r="D55" s="20" t="n">
         <v>42.302681</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="22" t="s">
+      <c r="A56" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="B56" s="23" t="n">
+      <c r="B56" s="20" t="n">
         <v>2729</v>
       </c>
-      <c r="C56" s="23" t="n">
+      <c r="C56" s="20" t="n">
         <v>15.5657773</v>
       </c>
-      <c r="D56" s="23" t="n">
+      <c r="D56" s="20" t="n">
         <v>46.76715349</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="22" t="s">
+      <c r="A57" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="B57" s="23" t="n">
+      <c r="B57" s="20" t="n">
         <v>2000</v>
       </c>
-      <c r="C57" s="23" t="n">
+      <c r="C57" s="20" t="n">
         <v>12.603363</v>
       </c>
-      <c r="D57" s="23" t="n">
+      <c r="D57" s="20" t="n">
         <v>42.329875</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="22" t="s">
+      <c r="A58" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="B58" s="23" t="n">
+      <c r="B58" s="20" t="n">
         <v>13854</v>
       </c>
-      <c r="C58" s="23" t="n">
+      <c r="C58" s="20" t="n">
         <v>6.72871</v>
       </c>
-      <c r="D58" s="23" t="n">
+      <c r="D58" s="20" t="n">
         <v>43.43446</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="22" t="s">
+      <c r="A59" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="B59" s="23" t="n">
+      <c r="B59" s="20" t="n">
         <v>3204</v>
       </c>
-      <c r="C59" s="23" t="n">
+      <c r="C59" s="20" t="n">
         <v>5.522992</v>
       </c>
-      <c r="D59" s="23" t="n">
+      <c r="D59" s="20" t="n">
         <v>34.635435</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="22" t="s">
+      <c r="A60" s="12" t="s">
         <v>232</v>
       </c>
-      <c r="B60" s="23" t="n">
+      <c r="B60" s="20" t="n">
         <v>5000</v>
       </c>
-      <c r="C60" s="23" t="n">
+      <c r="C60" s="20" t="n">
         <v>-0.2386057</v>
       </c>
-      <c r="D60" s="23" t="n">
+      <c r="D60" s="20" t="n">
         <v>47.3352194</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="22" t="s">
+      <c r="A61" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="B61" s="23" t="n">
+      <c r="B61" s="20" t="n">
         <v>1300</v>
       </c>
-      <c r="C61" s="23" t="n">
+      <c r="C61" s="20" t="n">
         <v>12.696433</v>
       </c>
-      <c r="D61" s="23" t="n">
+      <c r="D61" s="20" t="n">
         <v>41.69286</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="22" t="s">
+      <c r="A62" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="B62" s="23" t="n">
+      <c r="B62" s="20" t="n">
         <v>17000</v>
       </c>
-      <c r="C62" s="23" t="n">
+      <c r="C62" s="20" t="n">
         <v>5.49096</v>
       </c>
-      <c r="D62" s="23" t="n">
+      <c r="D62" s="20" t="n">
         <v>48.385217</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="22" t="s">
+      <c r="A63" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="B63" s="23" t="n">
+      <c r="B63" s="20" t="n">
         <v>7657</v>
       </c>
-      <c r="C63" s="23" t="n">
+      <c r="C63" s="20" t="n">
         <v>15.9115794</v>
       </c>
-      <c r="D63" s="23" t="n">
+      <c r="D63" s="20" t="n">
         <v>40.2876404</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="22" t="s">
+      <c r="A64" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="B64" s="23" t="n">
+      <c r="B64" s="20" t="n">
         <v>7500</v>
       </c>
-      <c r="C64" s="23" t="n">
+      <c r="C64" s="20" t="n">
         <v>9.905668</v>
       </c>
-      <c r="D64" s="23" t="n">
+      <c r="D64" s="20" t="n">
         <v>36.398153</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="22" t="s">
+      <c r="A65" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="B65" s="23" t="n">
+      <c r="B65" s="20" t="n">
         <v>5400</v>
       </c>
-      <c r="C65" s="23" t="n">
+      <c r="C65" s="20" t="n">
         <v>10.441193</v>
       </c>
-      <c r="D65" s="23" t="n">
+      <c r="D65" s="20" t="n">
         <v>35.958583</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="22" t="s">
+      <c r="A66" s="12" t="s">
         <v>238</v>
       </c>
-      <c r="B66" s="23" t="n">
+      <c r="B66" s="20" t="n">
         <v>11914</v>
       </c>
-      <c r="C66" s="23" t="n">
+      <c r="C66" s="20" t="n">
         <v>11.711992</v>
       </c>
-      <c r="D66" s="23" t="n">
+      <c r="D66" s="20" t="n">
         <v>44.353673</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="22" t="s">
+      <c r="A67" s="12" t="s">
         <v>239</v>
       </c>
-      <c r="B67" s="23" t="n">
+      <c r="B67" s="20" t="n">
         <v>25000</v>
       </c>
-      <c r="C67" s="23" t="n">
+      <c r="C67" s="20" t="n">
         <v>-6.046742</v>
       </c>
-      <c r="D67" s="23" t="n">
+      <c r="D67" s="20" t="n">
         <v>37.443893</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="22" t="s">
+      <c r="A68" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="B68" s="23" t="n">
+      <c r="B68" s="20" t="n">
         <v>8046</v>
       </c>
-      <c r="C68" s="23" t="n">
+      <c r="C68" s="20" t="n">
         <v>7.887734</v>
       </c>
-      <c r="D68" s="23" t="n">
+      <c r="D68" s="20" t="n">
         <v>45.467767</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="22" t="s">
+      <c r="A69" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="B69" s="23" t="n">
+      <c r="B69" s="20" t="n">
         <v>15400</v>
       </c>
-      <c r="C69" s="23" t="n">
+      <c r="C69" s="20" t="n">
         <v>6.2599349</v>
       </c>
-      <c r="D69" s="23" t="n">
+      <c r="D69" s="20" t="n">
         <v>35.4892469</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="22" t="s">
+      <c r="A70" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="B70" s="23" t="n">
+      <c r="B70" s="20" t="n">
         <v>13440</v>
       </c>
-      <c r="C70" s="23" t="n">
+      <c r="C70" s="20" t="n">
         <v>18.172733</v>
       </c>
-      <c r="D70" s="23" t="n">
+      <c r="D70" s="20" t="n">
         <v>40.352463</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="22" t="s">
+      <c r="A71" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="B71" s="23" t="n">
+      <c r="B71" s="20" t="n">
         <v>9100</v>
       </c>
-      <c r="C71" s="23" t="n">
+      <c r="C71" s="20" t="n">
         <v>10.866282</v>
       </c>
-      <c r="D71" s="23" t="n">
+      <c r="D71" s="20" t="n">
         <v>35.678077</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="22" t="s">
+      <c r="A72" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="B72" s="23" t="n">
+      <c r="B72" s="20" t="n">
         <v>16000</v>
       </c>
-      <c r="C72" s="23" t="n">
+      <c r="C72" s="20" t="n">
         <v>14.309452</v>
       </c>
-      <c r="D72" s="23" t="n">
+      <c r="D72" s="20" t="n">
         <v>32.63234</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="22" t="s">
+      <c r="A73" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="B73" s="23" t="n">
+      <c r="B73" s="20" t="n">
         <v>5380</v>
       </c>
-      <c r="C73" s="23" t="n">
+      <c r="C73" s="20" t="n">
         <v>8.867967</v>
       </c>
-      <c r="D73" s="23" t="n">
+      <c r="D73" s="20" t="n">
         <v>44.706013</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="22" t="s">
+      <c r="A74" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="B74" s="23" t="n">
+      <c r="B74" s="20" t="n">
         <v>7245</v>
       </c>
-      <c r="C74" s="23" t="n">
+      <c r="C74" s="20" t="n">
         <v>0.536724</v>
       </c>
-      <c r="D74" s="23" t="n">
+      <c r="D74" s="20" t="n">
         <v>49.517759</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="22" t="s">
+      <c r="A75" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="B75" s="23" t="n">
+      <c r="B75" s="20" t="n">
         <v>24795</v>
       </c>
-      <c r="C75" s="23" t="n">
+      <c r="C75" s="20" t="n">
         <v>1.251841</v>
       </c>
-      <c r="D75" s="23" t="n">
+      <c r="D75" s="20" t="n">
         <v>45.830474</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="22" t="s">
+      <c r="A76" s="12" t="s">
         <v>248</v>
       </c>
-      <c r="B76" s="23" t="n">
+      <c r="B76" s="20" t="n">
         <v>6500</v>
       </c>
-      <c r="C76" s="23" t="n">
+      <c r="C76" s="20" t="n">
         <v>-0.092136</v>
       </c>
-      <c r="D76" s="23" t="n">
+      <c r="D76" s="20" t="n">
         <v>51.515522</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="22" t="s">
+      <c r="A77" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="B77" s="23" t="n">
+      <c r="B77" s="20" t="n">
         <v>15048</v>
       </c>
-      <c r="C77" s="23" t="n">
+      <c r="C77" s="20" t="n">
         <v>10.5057722</v>
       </c>
-      <c r="D77" s="23" t="n">
+      <c r="D77" s="20" t="n">
         <v>43.8455202</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="22" t="s">
+      <c r="A78" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="B78" s="23" t="n">
+      <c r="B78" s="20" t="n">
         <v>17149</v>
       </c>
-      <c r="C78" s="23" t="n">
+      <c r="C78" s="20" t="n">
         <v>15.344984</v>
       </c>
-      <c r="D78" s="23" t="n">
+      <c r="D78" s="20" t="n">
         <v>41.508249</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="22" t="s">
+      <c r="A79" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="B79" s="23" t="n">
+      <c r="B79" s="20" t="n">
         <v>1844</v>
       </c>
-      <c r="C79" s="23" t="n">
+      <c r="C79" s="20" t="n">
         <v>12.594868</v>
       </c>
-      <c r="D79" s="23" t="n">
+      <c r="D79" s="20" t="n">
         <v>42.129831</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="22" t="s">
+      <c r="A80" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="B80" s="23" t="n">
+      <c r="B80" s="20" t="n">
         <v>3326</v>
       </c>
-      <c r="C80" s="23" t="n">
+      <c r="C80" s="20" t="n">
         <v>10.022386</v>
       </c>
-      <c r="D80" s="23" t="n">
+      <c r="D80" s="20" t="n">
         <v>44.062656</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="22" t="s">
+      <c r="A81" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="B81" s="23" t="n">
+      <c r="B81" s="20" t="n">
         <v>27454</v>
       </c>
-      <c r="C81" s="23" t="n">
+      <c r="C81" s="20" t="n">
         <v>4.830556</v>
       </c>
-      <c r="D81" s="23" t="n">
+      <c r="D81" s="20" t="n">
         <v>45.770556</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="22" t="s">
+      <c r="A82" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="B82" s="23" t="n">
+      <c r="B82" s="20" t="n">
         <v>5000</v>
       </c>
-      <c r="C82" s="23" t="n">
+      <c r="C82" s="20" t="n">
         <v>9.2066727</v>
       </c>
-      <c r="D82" s="23" t="n">
+      <c r="D82" s="20" t="n">
         <v>35.8556279</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="22" t="s">
+      <c r="A83" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="B83" s="23" t="n">
+      <c r="B83" s="20" t="n">
         <v>4000</v>
       </c>
-      <c r="C83" s="23" t="n">
+      <c r="C83" s="20" t="n">
         <v>27.556674</v>
       </c>
-      <c r="D83" s="23" t="n">
+      <c r="D83" s="20" t="n">
         <v>43.218689</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="22" t="s">
+      <c r="A84" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="B84" s="23" t="n">
+      <c r="B84" s="20" t="n">
         <v>15000</v>
       </c>
-      <c r="C84" s="23" t="n">
+      <c r="C84" s="20" t="n">
         <v>-6.337952</v>
       </c>
-      <c r="D84" s="23" t="n">
+      <c r="D84" s="20" t="n">
         <v>38.916168</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="22" t="s">
+      <c r="A85" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="B85" s="23" t="n">
+      <c r="B85" s="20" t="n">
         <v>30816</v>
       </c>
-      <c r="C85" s="23" t="n">
+      <c r="C85" s="20" t="n">
         <v>6.181932</v>
       </c>
-      <c r="D85" s="23" t="n">
+      <c r="D85" s="20" t="n">
         <v>49.107645</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="22" t="s">
+      <c r="A86" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="B86" s="23" t="n">
+      <c r="B86" s="20" t="n">
         <v>1722</v>
       </c>
-      <c r="C86" s="23" t="n">
+      <c r="C86" s="20" t="n">
         <v>22.81731</v>
       </c>
-      <c r="D86" s="23" t="n">
+      <c r="D86" s="20" t="n">
         <v>45.915008</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="22" t="s">
+      <c r="A87" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="B87" s="23" t="n">
+      <c r="B87" s="20" t="n">
         <v>31649</v>
       </c>
-      <c r="C87" s="23" t="n">
+      <c r="C87" s="20" t="n">
         <v>9.178518</v>
       </c>
-      <c r="D87" s="23" t="n">
+      <c r="D87" s="20" t="n">
         <v>45.456898</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="22" t="s">
+      <c r="A88" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="B88" s="23" t="n">
+      <c r="B88" s="20" t="n">
         <v>20000</v>
       </c>
-      <c r="C88" s="23" t="n">
+      <c r="C88" s="20" t="n">
         <v>28.338099</v>
       </c>
-      <c r="D88" s="23" t="n">
+      <c r="D88" s="20" t="n">
         <v>37.955596</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="22" t="s">
+      <c r="A89" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="B89" s="23" t="n">
+      <c r="B89" s="20" t="n">
         <v>1500</v>
       </c>
-      <c r="C89" s="23" t="n">
+      <c r="C89" s="20" t="n">
         <v>-2.6919</v>
       </c>
-      <c r="D89" s="23" t="n">
+      <c r="D89" s="20" t="n">
         <v>55.6026</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="22" t="s">
+      <c r="A90" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="B90" s="23" t="n">
+      <c r="B90" s="20" t="n">
         <v>24000</v>
       </c>
-      <c r="C90" s="23" t="n">
+      <c r="C90" s="20" t="n">
         <v>4.359599</v>
       </c>
-      <c r="D90" s="23" t="n">
+      <c r="D90" s="20" t="n">
         <v>43.834876</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="22" t="s">
+      <c r="A91" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="B91" s="23" t="n">
+      <c r="B91" s="20" t="n">
         <v>21162</v>
       </c>
-      <c r="C91" s="23" t="n">
+      <c r="C91" s="20" t="n">
         <v>14.657022</v>
       </c>
-      <c r="D91" s="23" t="n">
+      <c r="D91" s="20" t="n">
         <v>40.74575</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="22" t="s">
+      <c r="A92" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="B92" s="23" t="n">
+      <c r="B92" s="20" t="n">
         <v>17812</v>
       </c>
-      <c r="C92" s="23" t="n">
+      <c r="C92" s="20" t="n">
         <v>12.4671905</v>
       </c>
-      <c r="D92" s="23" t="n">
+      <c r="D92" s="20" t="n">
         <v>42.4115648</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="22" t="s">
+      <c r="A93" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="B93" s="23" t="n">
+      <c r="B93" s="20" t="n">
         <v>15550</v>
       </c>
-      <c r="C93" s="23" t="n">
+      <c r="C93" s="20" t="n">
         <v>7.073493</v>
       </c>
-      <c r="D93" s="23" t="n">
+      <c r="D93" s="20" t="n">
         <v>46.094356</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="22" t="s">
+      <c r="A94" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="B94" s="23" t="n">
+      <c r="B94" s="20" t="n">
         <v>6318</v>
       </c>
-      <c r="C94" s="23" t="n">
+      <c r="C94" s="20" t="n">
         <v>15.6231</v>
       </c>
-      <c r="D94" s="23" t="n">
+      <c r="D94" s="20" t="n">
         <v>41.3105</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="22" t="s">
+      <c r="A95" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="B95" s="23" t="n">
+      <c r="B95" s="20" t="n">
         <v>11832</v>
       </c>
-      <c r="C95" s="23" t="n">
+      <c r="C95" s="20" t="n">
         <v>10.169215</v>
       </c>
-      <c r="D95" s="23" t="n">
+      <c r="D95" s="20" t="n">
         <v>36.608597</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="22" t="s">
+      <c r="A96" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="B96" s="23" t="n">
+      <c r="B96" s="20" t="n">
         <v>7256</v>
       </c>
-      <c r="C96" s="23" t="n">
+      <c r="C96" s="20" t="n">
         <v>11.879039</v>
       </c>
-      <c r="D96" s="23" t="n">
+      <c r="D96" s="20" t="n">
         <v>45.411483</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="22" t="s">
+      <c r="A97" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="B97" s="23" t="n">
+      <c r="B97" s="20" t="n">
         <v>4500</v>
       </c>
-      <c r="C97" s="23" t="n">
+      <c r="C97" s="20" t="n">
         <v>15.006449</v>
       </c>
-      <c r="D97" s="23" t="n">
+      <c r="D97" s="20" t="n">
         <v>40.422354</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="22" t="s">
+      <c r="A98" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="B98" s="23" t="n">
+      <c r="B98" s="20" t="n">
         <v>15000</v>
       </c>
-      <c r="C98" s="23" t="n">
+      <c r="C98" s="20" t="n">
         <v>2.352855</v>
       </c>
-      <c r="D98" s="23" t="n">
+      <c r="D98" s="20" t="n">
         <v>48.845097</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="22" t="s">
+      <c r="A99" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="B99" s="23" t="n">
+      <c r="B99" s="20" t="n">
         <v>21413</v>
       </c>
-      <c r="C99" s="23" t="n">
+      <c r="C99" s="20" t="n">
         <v>0.713249</v>
       </c>
-      <c r="D99" s="23" t="n">
+      <c r="D99" s="20" t="n">
         <v>45.18274</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="22" t="s">
+      <c r="A100" s="12" t="s">
         <v>272</v>
       </c>
-      <c r="B100" s="23" t="n">
+      <c r="B100" s="20" t="n">
         <v>33250</v>
       </c>
-      <c r="C100" s="23" t="n">
+      <c r="C100" s="20" t="n">
         <v>0.339589</v>
       </c>
-      <c r="D100" s="23" t="n">
+      <c r="D100" s="20" t="n">
         <v>46.57815</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="22" t="s">
+      <c r="A101" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="B101" s="23" t="n">
+      <c r="B101" s="20" t="n">
         <v>20000</v>
       </c>
-      <c r="C101" s="23" t="n">
+      <c r="C101" s="20" t="n">
         <v>14.495262</v>
       </c>
-      <c r="D101" s="23" t="n">
+      <c r="D101" s="20" t="n">
         <v>40.751213</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="22" t="s">
+      <c r="A102" s="12" t="s">
         <v>274</v>
       </c>
-      <c r="B102" s="23" t="n">
+      <c r="B102" s="20" t="n">
         <v>2000</v>
       </c>
-      <c r="C102" s="23" t="n">
+      <c r="C102" s="20" t="n">
         <v>12.25809</v>
       </c>
-      <c r="D102" s="23" t="n">
+      <c r="D102" s="20" t="n">
         <v>41.781816</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="22" t="s">
+      <c r="A103" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="B103" s="23" t="n">
+      <c r="B103" s="20" t="n">
         <v>35700</v>
       </c>
-      <c r="C103" s="23" t="n">
+      <c r="C103" s="20" t="n">
         <v>14.125315</v>
       </c>
-      <c r="D103" s="23" t="n">
+      <c r="D103" s="20" t="n">
         <v>40.825929</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="22" t="s">
+      <c r="A104" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="B104" s="23" t="n">
+      <c r="B104" s="20" t="n">
         <v>10878</v>
       </c>
-      <c r="C104" s="23" t="n">
+      <c r="C104" s="20" t="n">
         <v>20.945728</v>
       </c>
-      <c r="D104" s="23" t="n">
+      <c r="D104" s="20" t="n">
         <v>32.707953</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="22" t="s">
+      <c r="A105" s="12" t="s">
         <v>277</v>
       </c>
-      <c r="B105" s="23" t="n">
+      <c r="B105" s="20" t="n">
         <v>26000</v>
       </c>
-      <c r="C105" s="23" t="n">
+      <c r="C105" s="20" t="n">
         <v>13.850243</v>
       </c>
-      <c r="D105" s="23" t="n">
+      <c r="D105" s="20" t="n">
         <v>44.873229</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="22" t="s">
+      <c r="A106" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="B106" s="23" t="n">
+      <c r="B106" s="20" t="n">
         <v>13967</v>
       </c>
-      <c r="C106" s="23" t="n">
+      <c r="C106" s="20" t="n">
         <v>12.575144</v>
       </c>
-      <c r="D106" s="23" t="n">
+      <c r="D106" s="20" t="n">
         <v>44.060057</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="22" t="s">
+      <c r="A107" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="B107" s="23" t="n">
+      <c r="B107" s="20" t="n">
         <v>18546</v>
       </c>
-      <c r="C107" s="23" t="n">
+      <c r="C107" s="20" t="n">
         <v>2.571162</v>
       </c>
-      <c r="D107" s="23" t="n">
+      <c r="D107" s="20" t="n">
         <v>44.353698</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="22" t="s">
+      <c r="A108" s="12" t="s">
         <v>280</v>
       </c>
-      <c r="B108" s="23" t="n">
+      <c r="B108" s="20" t="n">
         <v>7000</v>
       </c>
-      <c r="C108" s="23" t="n">
+      <c r="C108" s="20" t="n">
         <v>12.515144</v>
       </c>
-      <c r="D108" s="23" t="n">
+      <c r="D108" s="20" t="n">
         <v>41.887715</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="22" t="s">
+      <c r="A109" s="12" t="s">
         <v>281</v>
       </c>
-      <c r="B109" s="23" t="n">
+      <c r="B109" s="20" t="n">
         <v>50000</v>
       </c>
-      <c r="C109" s="23" t="n">
+      <c r="C109" s="20" t="n">
         <v>12.492269</v>
       </c>
-      <c r="D109" s="23" t="n">
+      <c r="D109" s="20" t="n">
         <v>41.890169</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="22" t="s">
+      <c r="A110" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="B110" s="23" t="n">
+      <c r="B110" s="20" t="n">
         <v>2309</v>
       </c>
-      <c r="C110" s="23" t="n">
+      <c r="C110" s="20" t="n">
         <v>11.159132</v>
       </c>
-      <c r="D110" s="23" t="n">
+      <c r="D110" s="20" t="n">
         <v>42.828405</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="22" t="s">
+      <c r="A111" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="B111" s="23" t="n">
+      <c r="B111" s="20" t="n">
         <v>20700</v>
       </c>
-      <c r="C111" s="23" t="n">
+      <c r="C111" s="20" t="n">
         <v>12.49404</v>
       </c>
-      <c r="D111" s="23" t="n">
+      <c r="D111" s="20" t="n">
         <v>32.803879</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="22" t="s">
+      <c r="A112" s="12" t="s">
         <v>284</v>
       </c>
-      <c r="B112" s="23" t="n">
+      <c r="B112" s="20" t="n">
         <v>20197</v>
       </c>
-      <c r="C112" s="23" t="n">
+      <c r="C112" s="20" t="n">
         <v>-0.6433512</v>
       </c>
-      <c r="D112" s="23" t="n">
+      <c r="D112" s="20" t="n">
         <v>45.7453926</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="22" t="s">
+      <c r="A113" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="B113" s="23" t="n">
+      <c r="B113" s="20" t="n">
         <v>3000</v>
       </c>
-      <c r="C113" s="23" t="n">
+      <c r="C113" s="20" t="n">
         <v>-0.749919</v>
       </c>
-      <c r="D113" s="23" t="n">
+      <c r="D113" s="20" t="n">
         <v>46.142723</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="22" t="s">
+      <c r="A114" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="B114" s="23" t="n">
+      <c r="B114" s="20" t="n">
         <v>13380</v>
       </c>
-      <c r="C114" s="23" t="n">
+      <c r="C114" s="20" t="n">
         <v>16.473893</v>
       </c>
-      <c r="D114" s="23" t="n">
+      <c r="D114" s="20" t="n">
         <v>43.5381718</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="22" t="s">
+      <c r="A115" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="B115" s="23" t="n">
+      <c r="B115" s="20" t="n">
         <v>20000</v>
       </c>
-      <c r="C115" s="23" t="n">
+      <c r="C115" s="20" t="n">
         <v>13.306027</v>
       </c>
-      <c r="D115" s="23" t="n">
+      <c r="D115" s="20" t="n">
         <v>42.400531</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="22" t="s">
+      <c r="A116" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="B116" s="23" t="n">
+      <c r="B116" s="20" t="n">
         <v>5831</v>
       </c>
-      <c r="C116" s="23" t="n">
+      <c r="C116" s="20" t="n">
         <v>22.7853206</v>
       </c>
-      <c r="D116" s="23" t="n">
+      <c r="D116" s="20" t="n">
         <v>45.51667729</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="22" t="s">
+      <c r="A117" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="B117" s="23" t="n">
+      <c r="B117" s="20" t="n">
         <v>6500</v>
       </c>
-      <c r="C117" s="23" t="n">
+      <c r="C117" s="20" t="n">
         <v>9.114582</v>
       </c>
-      <c r="D117" s="23" t="n">
+      <c r="D117" s="20" t="n">
         <v>35.243617</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="22" t="s">
+      <c r="A118" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="B118" s="23" t="n">
+      <c r="B118" s="20" t="n">
         <v>7500</v>
       </c>
-      <c r="C118" s="23" t="n">
+      <c r="C118" s="20" t="n">
         <v>-2.813944</v>
       </c>
-      <c r="D118" s="23" t="n">
+      <c r="D118" s="20" t="n">
         <v>39.886018</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="22" t="s">
+      <c r="A119" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="B119" s="23" t="n">
+      <c r="B119" s="20" t="n">
         <v>10000</v>
       </c>
-      <c r="C119" s="23" t="n">
+      <c r="C119" s="20" t="n">
         <v>2.575376</v>
       </c>
-      <c r="D119" s="23" t="n">
+      <c r="D119" s="20" t="n">
         <v>49.205169</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="22" t="s">
+      <c r="A120" s="12" t="s">
         <v>292</v>
       </c>
-      <c r="B120" s="23" t="n">
+      <c r="B120" s="20" t="n">
         <v>7200</v>
       </c>
-      <c r="C120" s="23" t="n">
+      <c r="C120" s="20" t="n">
         <v>9.775766</v>
       </c>
-      <c r="D120" s="23" t="n">
+      <c r="D120" s="20" t="n">
         <v>36.16351</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="22" t="s">
+      <c r="A121" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="B121" s="23" t="n">
+      <c r="B121" s="20" t="n">
         <v>11300</v>
       </c>
-      <c r="C121" s="23" t="n">
+      <c r="C121" s="20" t="n">
         <v>8.715302</v>
       </c>
-      <c r="D121" s="23" t="n">
+      <c r="D121" s="20" t="n">
         <v>36.18536115</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="22" t="s">
+      <c r="A122" s="12" t="s">
         <v>294</v>
       </c>
-      <c r="B122" s="23" t="n">
+      <c r="B122" s="20" t="n">
         <v>3200</v>
       </c>
-      <c r="C122" s="23" t="n">
+      <c r="C122" s="20" t="n">
         <v>9.31926</v>
       </c>
-      <c r="D122" s="23" t="n">
+      <c r="D122" s="20" t="n">
         <v>36.310778</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="22" t="s">
+      <c r="A123" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="B123" s="23" t="n">
+      <c r="B123" s="20" t="n">
         <v>7147</v>
       </c>
-      <c r="C123" s="23" t="n">
+      <c r="C123" s="20" t="n">
         <v>-1.07547</v>
       </c>
-      <c r="D123" s="23" t="n">
+      <c r="D123" s="20" t="n">
         <v>51.358881</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="22" t="s">
+      <c r="A124" s="12" t="s">
         <v>296</v>
       </c>
-      <c r="B124" s="23" t="n">
+      <c r="B124" s="20" t="n">
         <v>8000</v>
       </c>
-      <c r="C124" s="23" t="n">
+      <c r="C124" s="20" t="n">
         <v>6.91383</v>
       </c>
-      <c r="D124" s="23" t="n">
+      <c r="D124" s="20" t="n">
         <v>36.876413</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="22" t="s">
+      <c r="A125" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="B125" s="23" t="n">
+      <c r="B125" s="20" t="n">
         <v>20000</v>
       </c>
-      <c r="C125" s="23" t="n">
+      <c r="C125" s="20" t="n">
         <v>23.32865</v>
       </c>
-      <c r="D125" s="23" t="n">
+      <c r="D125" s="20" t="n">
         <v>42.697178</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="22" t="s">
+      <c r="A126" s="12" t="s">
         <v>298</v>
       </c>
-      <c r="B126" s="23" t="n">
+      <c r="B126" s="20" t="n">
         <v>3015</v>
       </c>
-      <c r="C126" s="23" t="n">
+      <c r="C126" s="20" t="n">
         <v>7.04497</v>
       </c>
-      <c r="D126" s="23" t="n">
+      <c r="D126" s="20" t="n">
         <v>45.133185</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="22" t="s">
+      <c r="A127" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="B127" s="23" t="n">
+      <c r="B127" s="20" t="n">
         <v>8500</v>
       </c>
-      <c r="C127" s="23" t="n">
+      <c r="C127" s="20" t="n">
         <v>12.2293009</v>
       </c>
-      <c r="D127" s="23" t="n">
+      <c r="D127" s="20" t="n">
         <v>42.2393124</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="22" t="s">
+      <c r="A128" s="12" t="s">
         <v>300</v>
       </c>
-      <c r="B128" s="23" t="n">
+      <c r="B128" s="20" t="n">
         <v>28773</v>
       </c>
-      <c r="C128" s="23" t="n">
+      <c r="C128" s="20" t="n">
         <v>15.278934</v>
       </c>
-      <c r="D128" s="23" t="n">
+      <c r="D128" s="20" t="n">
         <v>37.074132</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="22" t="s">
+      <c r="A129" s="12" t="s">
         <v>301</v>
       </c>
-      <c r="B129" s="23" t="n">
+      <c r="B129" s="20" t="n">
         <v>15000</v>
       </c>
-      <c r="C129" s="23" t="n">
+      <c r="C129" s="20" t="n">
         <v>1.25878</v>
       </c>
-      <c r="D129" s="23" t="n">
+      <c r="D129" s="20" t="n">
         <v>41.114522</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="22" t="s">
+      <c r="A130" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="B130" s="23" t="n">
+      <c r="B130" s="20" t="n">
         <v>9400</v>
       </c>
-      <c r="C130" s="23" t="n">
+      <c r="C130" s="20" t="n">
         <v>8.123809</v>
       </c>
-      <c r="D130" s="23" t="n">
+      <c r="D130" s="20" t="n">
         <v>35.401171</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="22" t="s">
+      <c r="A131" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="B131" s="23" t="n">
+      <c r="B131" s="20" t="n">
         <v>9000</v>
       </c>
-      <c r="C131" s="23" t="n">
+      <c r="C131" s="20" t="n">
         <v>14.500496</v>
       </c>
-      <c r="D131" s="23" t="n">
+      <c r="D131" s="20" t="n">
         <v>41.223911</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="22" t="s">
+      <c r="A132" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="B132" s="23" t="n">
+      <c r="B132" s="20" t="n">
         <v>26114</v>
       </c>
-      <c r="C132" s="23" t="n">
+      <c r="C132" s="20" t="n">
         <v>13.695186</v>
       </c>
-      <c r="D132" s="23" t="n">
+      <c r="D132" s="20" t="n">
         <v>37.983696</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="22" t="s">
+      <c r="A133" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="B133" s="23" t="n">
+      <c r="B133" s="20" t="n">
         <v>10890</v>
       </c>
-      <c r="C133" s="23" t="n">
+      <c r="C133" s="20" t="n">
         <v>12.64336</v>
       </c>
-      <c r="D133" s="23" t="n">
+      <c r="D133" s="20" t="n">
         <v>42.559785</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="22" t="s">
+      <c r="A134" s="12" t="s">
         <v>306</v>
       </c>
-      <c r="B134" s="23" t="n">
+      <c r="B134" s="20" t="n">
         <v>8700</v>
       </c>
-      <c r="C134" s="23" t="n">
+      <c r="C134" s="20" t="n">
         <v>10.673126</v>
       </c>
-      <c r="D134" s="23" t="n">
+      <c r="D134" s="20" t="n">
         <v>34.655481</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="22" t="s">
+      <c r="A135" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="B135" s="23" t="n">
+      <c r="B135" s="20" t="n">
         <v>6300</v>
       </c>
-      <c r="C135" s="23" t="n">
+      <c r="C135" s="20" t="n">
         <v>9.083712</v>
       </c>
-      <c r="D135" s="23" t="n">
+      <c r="D135" s="20" t="n">
         <v>36.504836</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="22" t="s">
+      <c r="A136" s="12" t="s">
         <v>308</v>
       </c>
-      <c r="B136" s="23" t="n">
+      <c r="B136" s="20" t="n">
         <v>35000</v>
       </c>
-      <c r="C136" s="23" t="n">
+      <c r="C136" s="20" t="n">
         <v>10.706939</v>
       </c>
-      <c r="D136" s="23" t="n">
+      <c r="D136" s="20" t="n">
         <v>35.29639</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="22" t="s">
+      <c r="A137" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="B137" s="23" t="n">
+      <c r="B137" s="20" t="n">
         <v>9000</v>
       </c>
-      <c r="C137" s="23" t="n">
+      <c r="C137" s="20" t="n">
         <v>10.707911</v>
       </c>
-      <c r="D137" s="23" t="n">
+      <c r="D137" s="20" t="n">
         <v>35.290106</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="22" t="s">
+      <c r="A138" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="B138" s="23" t="n">
+      <c r="B138" s="20" t="n">
         <v>2300</v>
       </c>
-      <c r="C138" s="23" t="n">
+      <c r="C138" s="20" t="n">
         <v>1.651389</v>
       </c>
-      <c r="D138" s="23" t="n">
+      <c r="D138" s="20" t="n">
         <v>36.23195</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="22" t="s">
+      <c r="A139" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="B139" s="23" t="n">
+      <c r="B139" s="20" t="n">
         <v>4398</v>
       </c>
-      <c r="C139" s="23" t="n">
+      <c r="C139" s="20" t="n">
         <v>2.445456</v>
       </c>
-      <c r="D139" s="23" t="n">
+      <c r="D139" s="20" t="n">
         <v>36.593152</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="22" t="s">
+      <c r="A140" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="B140" s="23" t="n">
+      <c r="B140" s="20" t="n">
         <v>2772</v>
       </c>
-      <c r="C140" s="23" t="n">
+      <c r="C140" s="20" t="n">
         <v>-3.9235</v>
       </c>
-      <c r="D140" s="23" t="n">
+      <c r="D140" s="20" t="n">
         <v>52.931893</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="22" t="s">
+      <c r="A141" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="B141" s="23" t="n">
+      <c r="B141" s="20" t="n">
         <v>16336</v>
       </c>
-      <c r="C141" s="23" t="n">
+      <c r="C141" s="20" t="n">
         <v>1.397664</v>
       </c>
-      <c r="D141" s="23" t="n">
+      <c r="D141" s="20" t="n">
         <v>43.614808</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="22" t="s">
+      <c r="A142" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="B142" s="23" t="n">
+      <c r="B142" s="20" t="n">
         <v>34000</v>
       </c>
-      <c r="C142" s="23" t="n">
+      <c r="C142" s="20" t="n">
         <v>0.696233</v>
       </c>
-      <c r="D142" s="23" t="n">
+      <c r="D142" s="20" t="n">
         <v>47.395342</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="22" t="s">
+      <c r="A143" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="B143" s="23" t="n">
+      <c r="B143" s="20" t="n">
         <v>8742</v>
       </c>
-      <c r="C143" s="23" t="n">
+      <c r="C143" s="20" t="n">
         <v>6.649088</v>
       </c>
-      <c r="D143" s="23" t="n">
+      <c r="D143" s="20" t="n">
         <v>49.748052</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="22" t="s">
+      <c r="A144" s="12" t="s">
         <v>316</v>
       </c>
-      <c r="B144" s="23" t="n">
+      <c r="B144" s="20" t="n">
         <v>4853</v>
       </c>
-      <c r="C144" s="23" t="n">
+      <c r="C144" s="20" t="n">
         <v>12.702103</v>
       </c>
-      <c r="D144" s="23" t="n">
+      <c r="D144" s="20" t="n">
         <v>41.798372</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="22" t="s">
+      <c r="A145" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="B145" s="23" t="n">
+      <c r="B145" s="20" t="n">
         <v>5150</v>
       </c>
-      <c r="C145" s="23" t="n">
+      <c r="C145" s="20" t="n">
         <v>13.387224</v>
       </c>
-      <c r="D145" s="23" t="n">
+      <c r="D145" s="20" t="n">
         <v>43.200877</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="22" t="s">
+      <c r="A146" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="B146" s="23" t="n">
+      <c r="B146" s="20" t="n">
         <v>17100</v>
       </c>
-      <c r="C146" s="23" t="n">
+      <c r="C146" s="20" t="n">
         <v>10.057188</v>
       </c>
-      <c r="D146" s="23" t="n">
+      <c r="D146" s="20" t="n">
         <v>37.052472</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="22" t="s">
+      <c r="A147" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="B147" s="23" t="n">
+      <c r="B147" s="20" t="n">
         <v>2901</v>
       </c>
-      <c r="C147" s="23" t="n">
+      <c r="C147" s="20" t="n">
         <v>9.723475</v>
       </c>
-      <c r="D147" s="23" t="n">
+      <c r="D147" s="20" t="n">
         <v>44.785084</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="22" t="s">
+      <c r="A148" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="B148" s="23" t="n">
+      <c r="B148" s="20" t="n">
         <v>15000</v>
       </c>
-      <c r="C148" s="23" t="n">
+      <c r="C148" s="20" t="n">
         <v>14.046835</v>
       </c>
-      <c r="D148" s="23" t="n">
+      <c r="D148" s="20" t="n">
         <v>41.48255</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="22" t="s">
+      <c r="A149" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="B149" s="23" t="n">
+      <c r="B149" s="20" t="n">
         <v>10602</v>
       </c>
-      <c r="C149" s="23" t="n">
+      <c r="C149" s="20" t="n">
         <v>15.826303</v>
       </c>
-      <c r="D149" s="23" t="n">
+      <c r="D149" s="20" t="n">
         <v>40.969693</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="22" t="s">
+      <c r="A150" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="B150" s="23" t="n">
+      <c r="B150" s="20" t="n">
         <v>30000</v>
       </c>
-      <c r="C150" s="23" t="n">
+      <c r="C150" s="20" t="n">
         <v>10.99435</v>
       </c>
-      <c r="D150" s="23" t="n">
+      <c r="D150" s="20" t="n">
         <v>45.43904</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="22" t="s">
+      <c r="A151" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="B151" s="23" t="n">
+      <c r="B151" s="20" t="n">
         <v>6900</v>
       </c>
-      <c r="C151" s="23" t="n">
+      <c r="C151" s="20" t="n">
         <v>21.220083</v>
       </c>
-      <c r="D151" s="23" t="n">
+      <c r="D151" s="20" t="n">
         <v>44.737985</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="22" t="s">
+      <c r="A152" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="B152" s="23" t="n">
+      <c r="B152" s="20" t="n">
         <v>15142</v>
       </c>
-      <c r="C152" s="23" t="n">
+      <c r="C152" s="20" t="n">
         <v>8.213605</v>
       </c>
-      <c r="D152" s="23" t="n">
+      <c r="D152" s="20" t="n">
         <v>47.47629</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="22" t="s">
+      <c r="A153" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="B153" s="23" t="n">
+      <c r="B153" s="20" t="n">
         <v>10000</v>
       </c>
-      <c r="C153" s="23" t="n">
+      <c r="C153" s="20" t="n">
         <v>10.862152</v>
       </c>
-      <c r="D153" s="23" t="n">
+      <c r="D153" s="20" t="n">
         <v>43.407162</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="22" t="s">
+      <c r="A154" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="B154" s="23" t="n">
+      <c r="B154" s="20" t="n">
         <v>10000</v>
       </c>
-      <c r="C154" s="23" t="n">
+      <c r="C154" s="20" t="n">
         <v>6.451386</v>
       </c>
-      <c r="D154" s="23" t="n">
+      <c r="D154" s="20" t="n">
         <v>51.667172</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:C154"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>223</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>23354</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>253</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>27454</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>281</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>280</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>273</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>261</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>220</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>275</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>35700</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>300</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>28773</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>212</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>221</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>255</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>210</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>209</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>13000</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>244</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>226</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>3343</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>301</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>12283</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>239</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>290</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>269</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>252</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>3326</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>213</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>7840</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>323</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>2729</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>282</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>2309</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>270</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>265</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>15550</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>245</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>5380</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>17149</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>262</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>217</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>10861</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>232</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>22130</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>267</v>
+      </c>
+      <c r="B40" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>11832</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>211</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>5945</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="B42" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>17812</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>251</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>1844</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>218</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>4245</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>249</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>15048</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>322</v>
+      </c>
+      <c r="B47" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="s">
+        <v>184</v>
+      </c>
+      <c r="B48" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>8617</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="B49" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>16049</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="s">
+        <v>271</v>
+      </c>
+      <c r="B50" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>21413</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="s">
+        <v>235</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>7657</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="s">
+        <v>176</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>10720</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="s">
+        <v>190</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>14313</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="s">
+        <v>299</v>
+      </c>
+      <c r="B54" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="s">
+        <v>288</v>
+      </c>
+      <c r="B55" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>5831</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="s">
+        <v>286</v>
+      </c>
+      <c r="B56" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>13380</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="s">
+        <v>248</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="B58" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="s">
+        <v>303</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="B60" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>5150</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="s">
+        <v>284</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>20197</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="s">
+        <v>241</v>
+      </c>
+      <c r="B63" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C63" s="0" t="n">
+        <v>15400</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="B64" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C64" s="0" t="n">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="s">
+        <v>219</v>
+      </c>
+      <c r="B65" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C65" s="0" t="n">
+        <v>10210</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="s">
+        <v>324</v>
+      </c>
+      <c r="B66" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="C66" s="0" t="n">
+        <v>15142</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="B67" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C67" s="0" t="n">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="B68" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="C68" s="0" t="n">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="C69" s="0" t="n">
+        <v>13854</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="s">
+        <v>243</v>
+      </c>
+      <c r="B70" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C70" s="0" t="n">
+        <v>9100</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="s">
+        <v>258</v>
+      </c>
+      <c r="B71" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C71" s="0" t="n">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="s">
+        <v>231</v>
+      </c>
+      <c r="B72" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="C72" s="0" t="n">
+        <v>3204</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="s">
+        <v>277</v>
+      </c>
+      <c r="B73" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="C73" s="0" t="n">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="B74" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="C74" s="0" t="n">
+        <v>18350</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="s">
+        <v>195</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C75" s="0" t="n">
+        <v>23016</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="s">
+        <v>283</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C76" s="0" t="n">
+        <v>20700</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="s">
+        <v>205</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C77" s="0" t="n">
+        <v>3532</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C78" s="0" t="n">
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="s">
+        <v>306</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C79" s="0" t="n">
+        <v>8700</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="s">
+        <v>289</v>
+      </c>
+      <c r="B80" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C80" s="0" t="n">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="s">
+        <v>302</v>
+      </c>
+      <c r="B81" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="C81" s="0" t="n">
+        <v>9400</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="B82" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="C82" s="0" t="n">
+        <v>8742</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="s">
+        <v>298</v>
+      </c>
+      <c r="B83" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C83" s="0" t="n">
+        <v>3015</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="s">
+        <v>240</v>
+      </c>
+      <c r="B84" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="C84" s="0" t="n">
+        <v>8046</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="s">
+        <v>193</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C85" s="0" t="n">
+        <v>12100</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="s">
+        <v>214</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C86" s="0" t="n">
+        <v>15538</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="s">
+        <v>297</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>170</v>
+      </c>
+      <c r="C87" s="0" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="s">
+        <v>276</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C88" s="0" t="n">
+        <v>10878</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="B89" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C89" s="0" t="n">
+        <v>16336</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="s">
+        <v>189</v>
+      </c>
+      <c r="B90" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="C90" s="0" t="n">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="s">
+        <v>246</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="C91" s="0" t="n">
+        <v>7245</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="s">
+        <v>197</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C92" s="0" t="n">
+        <v>13816</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C93" s="0" t="n">
+        <v>24795</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="s">
+        <v>272</v>
+      </c>
+      <c r="B94" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="C94" s="0" t="n">
+        <v>33250</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="s">
+        <v>279</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C95" s="0" t="n">
+        <v>18546</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="s">
+        <v>259</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="C96" s="0" t="n">
+        <v>31649</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="s">
+        <v>183</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="C97" s="0" t="n">
+        <v>26114</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="s">
+        <v>268</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="C98" s="0" t="n">
+        <v>7256</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="s">
+        <v>242</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>164</v>
+      </c>
+      <c r="C99" s="0" t="n">
+        <v>13440</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="s">
+        <v>304</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="C100" s="0" t="n">
+        <v>26114</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="B101" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="C101" s="0" t="n">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="s">
+        <v>180</v>
+      </c>
+      <c r="B102" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="C102" s="0" t="n">
+        <v>14168</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="s">
+        <v>287</v>
+      </c>
+      <c r="B103" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="C103" s="0" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="s">
+        <v>199</v>
+      </c>
+      <c r="B104" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C104" s="0" t="n">
+        <v>8601</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="s">
+        <v>179</v>
+      </c>
+      <c r="B105" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C105" s="0" t="n">
+        <v>17848</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="s">
+        <v>291</v>
+      </c>
+      <c r="B106" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="C106" s="0" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="B107" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="C107" s="0" t="n">
+        <v>34000</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="B108" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="C108" s="0" t="n">
+        <v>37000</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="s">
+        <v>295</v>
+      </c>
+      <c r="B109" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C109" s="0" t="n">
+        <v>7147</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="s">
+        <v>222</v>
+      </c>
+      <c r="B110" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="C110" s="0" t="n">
+        <v>7952</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="s">
+        <v>191</v>
+      </c>
+      <c r="B111" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="C111" s="0" t="n">
+        <v>32189</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="s">
+        <v>326</v>
+      </c>
+      <c r="B112" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C112" s="0" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="s">
+        <v>263</v>
+      </c>
+      <c r="B113" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C113" s="0" t="n">
+        <v>21162</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="s">
+        <v>196</v>
+      </c>
+      <c r="B114" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C114" s="0" t="n">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="s">
+        <v>296</v>
+      </c>
+      <c r="B115" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C115" s="0" t="n">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="B116" s="0" t="s">
+        <v>163</v>
+      </c>
+      <c r="C116" s="0" t="n">
+        <v>30816</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="s">
+        <v>234</v>
+      </c>
+      <c r="B117" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="C117" s="0" t="n">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="s">
+        <v>177</v>
+      </c>
+      <c r="B118" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C118" s="0" t="n">
+        <v>3926</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="s">
+        <v>186</v>
+      </c>
+      <c r="B119" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C119" s="0" t="n">
+        <v>17789</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="s">
+        <v>292</v>
+      </c>
+      <c r="B120" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C120" s="0" t="n">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="B121" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C121" s="0" t="n">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="s">
+        <v>194</v>
+      </c>
+      <c r="B122" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C122" s="0" t="n">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="s">
+        <v>294</v>
+      </c>
+      <c r="B123" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C123" s="0" t="n">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="s">
+        <v>233</v>
+      </c>
+      <c r="B124" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C124" s="0" t="n">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="B125" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C125" s="0" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="B126" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="C126" s="0" t="n">
+        <v>17100</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="s">
+        <v>236</v>
+      </c>
+      <c r="B127" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C127" s="0" t="n">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="s">
+        <v>237</v>
+      </c>
+      <c r="B128" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C128" s="0" t="n">
+        <v>5400</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="s">
+        <v>202</v>
+      </c>
+      <c r="B129" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C129" s="0" t="n">
+        <v>11600</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="B130" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="C130" s="0" t="n">
+        <v>4398</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="B131" s="0" t="s">
+        <v>167</v>
+      </c>
+      <c r="C131" s="0" t="n">
+        <v>9700</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="s">
+        <v>293</v>
+      </c>
+      <c r="B132" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C132" s="0" t="n">
+        <v>11300</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="0" t="s">
+        <v>307</v>
+      </c>
+      <c r="B133" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C133" s="0" t="n">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="0" t="s">
+        <v>274</v>
+      </c>
+      <c r="B134" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C134" s="0" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="B135" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C135" s="0" t="n">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0" t="s">
+        <v>181</v>
+      </c>
+      <c r="B136" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="C136" s="0" t="n">
+        <v>9770</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="s">
+        <v>227</v>
+      </c>
+      <c r="B137" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="C137" s="0" t="n">
+        <v>7986</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="s">
+        <v>278</v>
+      </c>
+      <c r="B138" s="0" t="s">
+        <v>165</v>
+      </c>
+      <c r="C138" s="0" t="n">
+        <v>13967</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="0" t="s">
+        <v>238</v>
+      </c>
+      <c r="B139" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C139" s="0" t="n">
+        <v>11914</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="B140" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C140" s="0" t="n">
+        <v>10602</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="B141" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="C141" s="0" t="n">
+        <v>2901</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="0" t="s">
+        <v>266</v>
+      </c>
+      <c r="B142" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="C142" s="0" t="n">
+        <v>6318</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="0" t="s">
+        <v>198</v>
+      </c>
+      <c r="B143" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="C143" s="0" t="n">
+        <v>6251</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="B144" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C144" s="0" t="n">
+        <v>4853</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="B145" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="C145" s="0" t="n">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="0" t="s">
+        <v>305</v>
+      </c>
+      <c r="B146" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="C146" s="0" t="n">
+        <v>10890</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="B147" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="C147" s="0" t="n">
+        <v>3926</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="B148" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C148" s="0" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="B149" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C149" s="0" t="n">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="0" t="s">
+        <v>325</v>
+      </c>
+      <c r="B150" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="C150" s="0" t="n">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="0" t="s">
+        <v>260</v>
+      </c>
+      <c r="B151" s="0" t="s">
+        <v>168</v>
+      </c>
+      <c r="C151" s="0" t="n">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="0" t="s">
+        <v>192</v>
+      </c>
+      <c r="B152" s="0" t="s">
+        <v>166</v>
+      </c>
+      <c r="C152" s="0" t="n">
+        <v>13006</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="B153" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="C153" s="0" t="n">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="0" t="s">
+        <v>285</v>
+      </c>
+      <c r="B154" s="0" t="s">
+        <v>161</v>
+      </c>
+      <c r="C154" s="0" t="n">
+        <v>3000</v>
       </c>
     </row>
   </sheetData>
